--- a/Two node models/in.xlsx
+++ b/Two node models/in.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Three node models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10AF1E00-DF09-4513-9461-A3A8ED729F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A32C72-4D1F-4803-B08F-51976A132DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
     <sheet name="timeseries" sheetId="6" r:id="rId2"/>
+    <sheet name="Wind shift" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>Availability</t>
   </si>
@@ -179,6 +180,30 @@
   </si>
   <si>
     <t>South</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Anteil north</t>
+  </si>
+  <si>
+    <t>Anteil south</t>
+  </si>
+  <si>
+    <t>Total north</t>
+  </si>
+  <si>
+    <t>Total south</t>
+  </si>
+  <si>
+    <t>Total all</t>
+  </si>
+  <si>
+    <t>Factor north</t>
+  </si>
+  <si>
+    <t>Factor south</t>
   </si>
 </sst>
 </file>
@@ -516,7 +541,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -686,6 +711,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1245,10 +1271,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$F$4:$F$27</c:f>
+              <c:f>timeseries!$F$4:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.57999999999999996</c:v>
                 </c:pt>
@@ -1284,42 +1310,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1362,10 +1352,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$G$4:$G$27</c:f>
+              <c:f>timeseries!$G$4:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1373,25 +1363,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31</c:v>
+                  <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.09</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1400,42 +1390,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.28000000000000003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1479,10 +1433,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$H$4:$H$27</c:f>
+              <c:f>timeseries!$H$4:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.51</c:v>
                 </c:pt>
@@ -1518,42 +1472,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.31</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.37</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,10 +1514,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$I$4:$I$27</c:f>
+              <c:f>timeseries!$I$4:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1607,25 +1525,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.13</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.23</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.21</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.04</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1634,42 +1552,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.38</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1953,12 +1835,57 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>timeseries!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$C$4:$C$51</c:f>
+              <c:f>timeseries!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>15532.8</c:v>
                 </c:pt>
@@ -1994,114 +1921,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>20171.55</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16868.52</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>18546.28</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>20102.16</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>27601.199999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>23764.3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>23438.240000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21522.240000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19314.3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21009.120000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>19848.32</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17854.14</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>14758.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>17086.080000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>18099.199999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20811.02</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29005.449999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25128.38</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>20951.000000000004</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25526.899999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>26539.200000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>21865.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>23309.22</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21975.8</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>20747.88</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>16443.740000000002</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14571.720000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>13421.779999999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>18666.899999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>19299.760000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>17843.52</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>21335.17</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>17866.099999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20680.36</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16310.65</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>14040</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>13247.19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2139,12 +1958,57 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>timeseries!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$D$4:$D$51</c:f>
+              <c:f>timeseries!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>36243.199999999997</c:v>
                 </c:pt>
@@ -2180,114 +2044,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>37461.449999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29988.48</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>30259.72</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39021.839999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39718.800000000003</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44133.7</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45497.759999999995</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45734.759999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>45066.7</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>42654.879999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>42177.68</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>39739.86</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>34436.5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>34689.919999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>33612.800000000003</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>35434.979999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>41739.550000000003</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>48778.619999999995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>53874</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>47407.100000000006</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>43300.800000000003</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>51019.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>47324.78</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>40812.199999999997</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36885.119999999995</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>26829.26</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>28286.28</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>32860.22</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>34667.100000000006</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>37464.239999999998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>37917.479999999996</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>30701.83</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>33179.9</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>33741.64</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>36304.35</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>32760</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>26895.809999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2304,12 +2060,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>timeseries!#REF!</c:f>
+              <c:f>timeseries!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>#REF!</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2325,14 +2078,92 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>timeseries!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!#REF!</c:f>
+              <c:f>timeseries!$E$4:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5019,8 +4850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="B1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5158,13 +4989,13 @@
         <v>0.4</v>
       </c>
       <c r="G6" s="45">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H6" s="45">
         <v>0.33</v>
       </c>
       <c r="I6" s="45">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="V6" s="59"/>
       <c r="W6" s="60"/>
@@ -5188,13 +5019,13 @@
         <v>0.33</v>
       </c>
       <c r="G7" s="45">
-        <v>0.12</v>
+        <v>0.02</v>
       </c>
       <c r="H7" s="45">
         <v>0.18</v>
       </c>
       <c r="I7" s="45">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="V7" s="59"/>
       <c r="W7" s="60"/>
@@ -5218,13 +5049,13 @@
         <v>0.24</v>
       </c>
       <c r="G8" s="45">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="H8" s="45">
         <v>0.15</v>
       </c>
       <c r="I8" s="45">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="V8" s="59"/>
       <c r="W8" s="60"/>
@@ -5248,13 +5079,13 @@
         <v>0.22</v>
       </c>
       <c r="G9" s="45">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="H9" s="45">
         <v>0.12</v>
       </c>
       <c r="I9" s="45">
-        <v>0.23</v>
+        <v>0.31</v>
       </c>
       <c r="V9" s="59"/>
       <c r="W9" s="60"/>
@@ -5278,13 +5109,13 @@
         <v>0.23</v>
       </c>
       <c r="G10" s="45">
-        <v>0.32</v>
+        <v>0.24</v>
       </c>
       <c r="H10" s="45">
         <v>0.08</v>
       </c>
       <c r="I10" s="45">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="V10" s="59"/>
       <c r="W10" s="60"/>
@@ -5308,13 +5139,13 @@
         <v>0.24</v>
       </c>
       <c r="G11" s="45">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="H11" s="45">
         <v>0.15</v>
       </c>
       <c r="I11" s="45">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="V11" s="59"/>
       <c r="W11" s="60"/>
@@ -5338,13 +5169,13 @@
         <v>0.2</v>
       </c>
       <c r="G12" s="45">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="H12" s="45">
         <v>0.17</v>
       </c>
       <c r="I12" s="45">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
@@ -5518,13 +5349,13 @@
         <v>0.13</v>
       </c>
       <c r="G18" s="45">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H18" s="45">
         <v>0.11</v>
       </c>
       <c r="I18" s="45">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="V18" s="59"/>
       <c r="W18" s="60"/>
@@ -5548,13 +5379,13 @@
         <v>0.16</v>
       </c>
       <c r="G19" s="45">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="H19" s="45">
         <v>0.15</v>
       </c>
       <c r="I19" s="45">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="V19" s="59"/>
       <c r="W19" s="60"/>
@@ -5578,13 +5409,13 @@
         <v>0.18</v>
       </c>
       <c r="G20" s="45">
-        <v>0.25</v>
+        <v>0.39</v>
       </c>
       <c r="H20" s="45">
         <v>0.17</v>
       </c>
       <c r="I20" s="45">
-        <v>0.39</v>
+        <v>0.25</v>
       </c>
       <c r="V20" s="59"/>
       <c r="W20" s="60"/>
@@ -5608,13 +5439,13 @@
         <v>0.28999999999999998</v>
       </c>
       <c r="G21" s="45">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="H21" s="45">
         <v>0.21</v>
       </c>
       <c r="I21" s="45">
-        <v>0.45</v>
+        <v>0.32</v>
       </c>
       <c r="V21" s="59"/>
       <c r="W21" s="60"/>
@@ -5638,13 +5469,13 @@
         <v>0.36</v>
       </c>
       <c r="G22" s="45">
-        <v>0.28000000000000003</v>
+        <v>0.42</v>
       </c>
       <c r="H22" s="45">
         <v>0.31</v>
       </c>
       <c r="I22" s="45">
-        <v>0.42</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V22" s="59"/>
       <c r="W22" s="60"/>
@@ -5668,13 +5499,13 @@
         <v>0.45</v>
       </c>
       <c r="G23" s="45">
-        <v>0.13</v>
+        <v>0.38</v>
       </c>
       <c r="H23" s="45">
         <v>0.37</v>
       </c>
       <c r="I23" s="45">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="V23" s="59"/>
       <c r="W23" s="60"/>
@@ -5698,13 +5529,13 @@
         <v>0.36</v>
       </c>
       <c r="G24" s="45">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="H24" s="45">
         <v>0.32</v>
       </c>
       <c r="I24" s="45">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="V24" s="59"/>
       <c r="W24" s="60"/>
@@ -5728,13 +5559,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G25" s="45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H25" s="45">
         <v>0.18</v>
       </c>
       <c r="I25" s="45">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="V25" s="59"/>
       <c r="W25" s="60"/>
@@ -5926,13 +5757,13 @@
         <v>0.37</v>
       </c>
       <c r="G32" s="45">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="H32" s="45">
         <v>0.36</v>
       </c>
       <c r="I32" s="45">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="33" spans="2:17" x14ac:dyDescent="0.35">
@@ -5952,13 +5783,13 @@
         <v>0.39</v>
       </c>
       <c r="G33" s="45">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="H33" s="45">
         <v>0.38</v>
       </c>
       <c r="I33" s="45">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="34" spans="2:17" x14ac:dyDescent="0.35">
@@ -5978,13 +5809,13 @@
         <v>0.35</v>
       </c>
       <c r="G34" s="45">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="H34" s="45">
         <v>0.42</v>
       </c>
       <c r="I34" s="45">
-        <v>0.26</v>
+        <v>0.22</v>
       </c>
       <c r="M34" s="45" t="s">
         <v>46</v>
@@ -6010,24 +5841,24 @@
         <v>0.32</v>
       </c>
       <c r="G35" s="45">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="H35" s="45">
         <v>0.36</v>
       </c>
       <c r="I35" s="45">
-        <v>0.11</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="L35" s="45" t="s">
         <v>44</v>
       </c>
       <c r="M35" s="47">
         <f>N43</f>
-        <v>2204.6000000000004</v>
+        <v>2387.1000000000004</v>
       </c>
       <c r="N35" s="47">
         <f>P43</f>
-        <v>1697.2499999999998</v>
+        <v>1781.1999999999996</v>
       </c>
     </row>
     <row r="36" spans="2:17" x14ac:dyDescent="0.35">
@@ -6060,11 +5891,11 @@
       </c>
       <c r="M36" s="47">
         <f>O43</f>
-        <v>934.39999999999986</v>
+        <v>627.80000000000007</v>
       </c>
       <c r="N36" s="47">
         <f>Q43</f>
-        <v>1011.0499999999998</v>
+        <v>1007.4000000000001</v>
       </c>
     </row>
     <row r="37" spans="2:17" x14ac:dyDescent="0.35">
@@ -6226,13 +6057,13 @@
         <v>0.11</v>
       </c>
       <c r="G42" s="45">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H42" s="45">
         <v>0.08</v>
       </c>
       <c r="I42" s="45">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N42" s="49" t="s">
         <v>25</v>
@@ -6264,32 +6095,32 @@
         <v>0.11</v>
       </c>
       <c r="G43" s="45">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="H43" s="45">
         <v>0.08</v>
       </c>
       <c r="I43" s="45">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="L43" s="46" t="s">
         <v>20</v>
       </c>
       <c r="N43" s="51">
         <f>(8760*N44)</f>
-        <v>2204.6000000000004</v>
+        <v>2387.1000000000004</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
-        <v>934.39999999999986</v>
+        <v>627.80000000000007</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="0"/>
-        <v>1697.2499999999998</v>
+        <v>1781.1999999999996</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="0"/>
-        <v>1011.0499999999998</v>
+        <v>1007.4000000000001</v>
       </c>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.35">
@@ -6309,32 +6140,32 @@
         <v>0.09</v>
       </c>
       <c r="G44" s="45">
-        <v>0.12</v>
+        <v>0.39</v>
       </c>
       <c r="H44" s="45">
         <v>0.06</v>
       </c>
       <c r="I44" s="45">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
       <c r="L44" s="46" t="s">
         <v>39</v>
       </c>
       <c r="N44" s="52">
-        <f>AVERAGE(F4:F27)</f>
-        <v>0.25166666666666671</v>
+        <f>AVERAGE(F4:F15)</f>
+        <v>0.27250000000000002</v>
       </c>
       <c r="O44" s="52">
-        <f>AVERAGE(G4:G27)</f>
-        <v>0.10666666666666665</v>
+        <f t="shared" ref="O44:Q44" si="1">AVERAGE(G4:G15)</f>
+        <v>7.166666666666667E-2</v>
       </c>
       <c r="P44" s="52">
-        <f>AVERAGE(H4:H27)</f>
-        <v>0.19374999999999998</v>
+        <f t="shared" si="1"/>
+        <v>0.20333333333333328</v>
       </c>
       <c r="Q44" s="52">
-        <f>AVERAGE(I4:I27)</f>
-        <v>0.11541666666666665</v>
+        <f t="shared" si="1"/>
+        <v>0.115</v>
       </c>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.35">
@@ -6354,13 +6185,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G45" s="45">
-        <v>0.24</v>
+        <v>0.53</v>
       </c>
       <c r="H45" s="45">
         <v>0.05</v>
       </c>
       <c r="I45" s="45">
-        <v>0.53</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.35">
@@ -6380,13 +6211,13 @@
         <v>0.08</v>
       </c>
       <c r="G46" s="45">
-        <v>0.18</v>
+        <v>0.53</v>
       </c>
       <c r="H46" s="45">
         <v>0.06</v>
       </c>
       <c r="I46" s="45">
-        <v>0.53</v>
+        <v>0.18</v>
       </c>
       <c r="N46" s="45">
         <v>2200</v>
@@ -6412,13 +6243,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="G47" s="45">
-        <v>0.03</v>
+        <v>0.38</v>
       </c>
       <c r="H47" s="45">
         <v>0.1</v>
       </c>
       <c r="I47" s="45">
-        <v>0.38</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.35">
@@ -6438,16 +6269,16 @@
         <v>0.22</v>
       </c>
       <c r="G48" s="45">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H48" s="45">
         <v>0.18</v>
       </c>
       <c r="I48" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B49" s="45">
         <v>46</v>
       </c>
@@ -6464,16 +6295,28 @@
         <v>0.22</v>
       </c>
       <c r="G49" s="45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="H49" s="45">
         <v>0.18</v>
       </c>
       <c r="I49" s="45">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="N49" s="53">
+        <v>0.25166666666666671</v>
+      </c>
+      <c r="O49" s="53">
+        <v>0.10666666666666665</v>
+      </c>
+      <c r="P49" s="53">
+        <v>0.19374999999999998</v>
+      </c>
+      <c r="Q49" s="53">
+        <v>0.11541666666666665</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B50" s="45">
         <v>47</v>
       </c>
@@ -6499,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
       <c r="B51" s="45">
         <v>48</v>
       </c>
@@ -6525,20 +6368,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C53" s="47"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C54" s="47"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C55" s="47"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
       <c r="F56" s="53"/>
@@ -6546,7 +6389,7 @@
       <c r="H56" s="53"/>
       <c r="I56" s="53"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
       <c r="F57" s="53"/>
@@ -6554,7 +6397,7 @@
       <c r="H57" s="53"/>
       <c r="I57" s="53"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
       <c r="F58" s="53"/>
@@ -6562,7 +6405,7 @@
       <c r="H58" s="53"/>
       <c r="I58" s="53"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C59" s="47"/>
       <c r="D59" s="47"/>
       <c r="F59" s="53"/>
@@ -6570,7 +6413,7 @@
       <c r="H59" s="53"/>
       <c r="I59" s="53"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C60" s="47"/>
       <c r="D60" s="47"/>
       <c r="F60" s="53"/>
@@ -6578,7 +6421,7 @@
       <c r="H60" s="53"/>
       <c r="I60" s="53"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C61" s="47"/>
       <c r="D61" s="47"/>
       <c r="F61" s="53"/>
@@ -6586,7 +6429,7 @@
       <c r="H61" s="53"/>
       <c r="I61" s="53"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C62" s="47"/>
       <c r="D62" s="47"/>
       <c r="F62" s="53"/>
@@ -6594,7 +6437,7 @@
       <c r="H62" s="53"/>
       <c r="I62" s="53"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C63" s="47"/>
       <c r="D63" s="47"/>
       <c r="F63" s="53"/>
@@ -6602,7 +6445,7 @@
       <c r="H63" s="53"/>
       <c r="I63" s="53"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C64" s="47"/>
       <c r="D64" s="47"/>
       <c r="F64" s="53"/>
@@ -6867,4 +6710,230 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFA3B40-044F-436C-80C0-806BB9FE0DB5}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="45">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" s="45">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="45">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="45">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="45">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" s="45">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" s="45">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" s="45">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" s="45">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" s="45">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" s="45">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14">
+        <f>SUM(B2:B13)</f>
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" s="45">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="45">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="45">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="45">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="45">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="45">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="45">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="45">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="45">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="45">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="45">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="45">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <f>SUM(B16:B27)</f>
+        <v>2.4399999999999995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <f>B14+B28</f>
+        <v>5.7099999999999991</v>
+      </c>
+      <c r="C32">
+        <f>B32</f>
+        <v>5.7099999999999991</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33">
+        <f>B14/B28</f>
+        <v>1.3401639344262297</v>
+      </c>
+      <c r="C33" s="67">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <f>B14/B32</f>
+        <v>0.57267950963222425</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <f>B28/B32</f>
+        <v>0.42732049036777581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <f>(B33+1)/B32</f>
+        <v>0.40983606557377061</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Two node models/in.xlsx
+++ b/Two node models/in.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A32C72-4D1F-4803-B08F-51976A132DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAFC22CE-78DC-43F7-BC26-247EE36E58F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
   <si>
     <t>Availability</t>
   </si>
@@ -204,6 +204,54 @@
   </si>
   <si>
     <t>Factor south</t>
+  </si>
+  <si>
+    <t>0:00-1:30</t>
+  </si>
+  <si>
+    <t>1:30-3:00</t>
+  </si>
+  <si>
+    <t>3:00-4:30</t>
+  </si>
+  <si>
+    <t>4:30-6:00</t>
+  </si>
+  <si>
+    <t>6:00-7:30</t>
+  </si>
+  <si>
+    <t>7:30-9:00</t>
+  </si>
+  <si>
+    <t>9:00-10:30</t>
+  </si>
+  <si>
+    <t>10:30-12:00</t>
+  </si>
+  <si>
+    <t>12:00-13:30</t>
+  </si>
+  <si>
+    <t>13:30-15:00</t>
+  </si>
+  <si>
+    <t>15:00-16:30</t>
+  </si>
+  <si>
+    <t>16:30-18:00</t>
+  </si>
+  <si>
+    <t>18:00-19:30</t>
+  </si>
+  <si>
+    <t>19:30-21:00</t>
+  </si>
+  <si>
+    <t>21:00-22:30</t>
+  </si>
+  <si>
+    <t>22:30-24:00</t>
   </si>
 </sst>
 </file>
@@ -216,7 +264,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +317,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -694,6 +748,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -711,7 +766,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1836,56 +1890,67 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>timeseries!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+            <c:strRef>
+              <c:f>timeseries!$A$4:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0:00-1:30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1:30-3:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3:00-4:30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4:30-6:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6:00-7:30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7:30-9:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>9:00-10:30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>10:30-12:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>12:00-13:30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>13:30-15:00</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>15:00-16:30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16:30-18:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18:00-19:30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19:30-21:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21:00-22:30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22:30-24:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$C$4:$C$15</c:f>
+              <c:f>timeseries!$C$4:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>15532.8</c:v>
                 </c:pt>
@@ -1893,34 +1958,46 @@
                   <c:v>17064.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15186.420000000002</c:v>
+                  <c:v>21223.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21223.5</c:v>
+                  <c:v>21433.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21433.03</c:v>
+                  <c:v>20421.52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22447.5</c:v>
+                  <c:v>24444</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20421.52</c:v>
+                  <c:v>21190.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24444</c:v>
+                  <c:v>20720.04</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24780.9</c:v>
+                  <c:v>16868.52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21190.2</c:v>
+                  <c:v>18546.28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20720.04</c:v>
+                  <c:v>27601.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20171.55</c:v>
+                  <c:v>23764.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21522.240000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19314.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19848.32</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17854.14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1959,56 +2036,67 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
-              <c:f>timeseries!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+            <c:strRef>
+              <c:f>timeseries!$A$4:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0:00-1:30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1:30-3:00</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>3:00-4:30</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>4:30-6:00</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6:00-7:30</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7:30-9:00</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>9:00-10:30</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>10:30-12:00</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>12:00-13:30</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>13:30-15:00</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>15:00-16:30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>16:30-18:00</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>18:00-19:30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19:30-21:00</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21:00-22:30</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22:30-24:00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$D$4:$D$15</c:f>
+              <c:f>timeseries!$D$4:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>36243.199999999997</c:v>
                 </c:pt>
@@ -2016,34 +2104,46 @@
                   <c:v>34647.040000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41059.58</c:v>
+                  <c:v>49521.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49521.5</c:v>
+                  <c:v>52473.97</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52473.97</c:v>
+                  <c:v>52512.479999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52377.5</c:v>
+                  <c:v>45396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52512.479999999996</c:v>
+                  <c:v>49443.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45396</c:v>
+                  <c:v>42067.96</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48104.1</c:v>
+                  <c:v>29988.48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49443.8</c:v>
+                  <c:v>30259.72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42067.96</c:v>
+                  <c:v>39718.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37461.449999999997</c:v>
+                  <c:v>44133.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45734.759999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45066.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42177.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39739.86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2052,126 +2152,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-34F0-4288-911D-BAF4A7FBA9FF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>timeseries!$E$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>timeseries!$B$4:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>timeseries!$E$4:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-34F0-4288-911D-BAF4A7FBA9FF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4537,10 +4517,10 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="26"/>
-      <c r="O3" s="64" t="s">
+      <c r="O3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="65"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
@@ -4667,7 +4647,7 @@
       <c r="N7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="62" t="s">
+      <c r="O7" s="63" t="s">
         <v>19</v>
       </c>
       <c r="P7" s="23" t="e">
@@ -4690,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="28"/>
-      <c r="O8" s="63"/>
+      <c r="O8" s="64"/>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4848,10 +4828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
-  <dimension ref="B1:Y95"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="C12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4861,20 +4841,20 @@
     <col min="6" max="16384" width="8.7265625" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="C1" s="66" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C1" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="66"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="46"/>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-    </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.35">
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C2" s="54" t="s">
         <v>4</v>
       </c>
@@ -4895,7 +4875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C3" s="54" t="s">
         <v>25</v>
       </c>
@@ -4916,7 +4896,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="45" t="s">
+        <v>56</v>
+      </c>
       <c r="B4" s="45">
         <v>1</v>
       </c>
@@ -4942,7 +4925,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="45" t="s">
+        <v>57</v>
+      </c>
       <c r="B5" s="45">
         <v>2</v>
       </c>
@@ -4972,15 +4958,18 @@
       <c r="X5" s="58"/>
       <c r="Y5" s="57"/>
     </row>
-    <row r="6" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="45" t="s">
+        <v>58</v>
+      </c>
       <c r="B6" s="45">
         <v>3</v>
       </c>
       <c r="C6" s="47">
-        <v>15186.420000000002</v>
+        <v>21223.5</v>
       </c>
       <c r="D6" s="47">
-        <v>41059.58</v>
+        <v>49521.5</v>
       </c>
       <c r="E6" s="45">
         <v>3</v>
@@ -5002,15 +4991,18 @@
       <c r="X6" s="61"/>
       <c r="Y6" s="60"/>
     </row>
-    <row r="7" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="45" t="s">
+        <v>59</v>
+      </c>
       <c r="B7" s="45">
         <v>4</v>
       </c>
       <c r="C7" s="47">
-        <v>21223.5</v>
+        <v>21433.03</v>
       </c>
       <c r="D7" s="47">
-        <v>49521.5</v>
+        <v>52473.97</v>
       </c>
       <c r="E7" s="45">
         <v>4</v>
@@ -5032,15 +5024,18 @@
       <c r="X7" s="61"/>
       <c r="Y7" s="60"/>
     </row>
-    <row r="8" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="45" t="s">
+        <v>60</v>
+      </c>
       <c r="B8" s="45">
         <v>5</v>
       </c>
       <c r="C8" s="47">
-        <v>21433.03</v>
+        <v>20421.52</v>
       </c>
       <c r="D8" s="47">
-        <v>52473.97</v>
+        <v>52512.479999999996</v>
       </c>
       <c r="E8" s="45">
         <v>5</v>
@@ -5062,15 +5057,18 @@
       <c r="X8" s="61"/>
       <c r="Y8" s="60"/>
     </row>
-    <row r="9" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="45" t="s">
+        <v>61</v>
+      </c>
       <c r="B9" s="45">
         <v>6</v>
       </c>
       <c r="C9" s="47">
-        <v>22447.5</v>
+        <v>24444</v>
       </c>
       <c r="D9" s="47">
-        <v>52377.5</v>
+        <v>45396</v>
       </c>
       <c r="E9" s="45">
         <v>6</v>
@@ -5092,15 +5090,18 @@
       <c r="X9" s="61"/>
       <c r="Y9" s="60"/>
     </row>
-    <row r="10" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="45" t="s">
+        <v>62</v>
+      </c>
       <c r="B10" s="45">
         <v>7</v>
       </c>
       <c r="C10" s="47">
-        <v>20421.52</v>
+        <v>21190.2</v>
       </c>
       <c r="D10" s="47">
-        <v>52512.479999999996</v>
+        <v>49443.8</v>
       </c>
       <c r="E10" s="45">
         <v>7</v>
@@ -5122,15 +5123,18 @@
       <c r="X10" s="61"/>
       <c r="Y10" s="60"/>
     </row>
-    <row r="11" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="45" t="s">
+        <v>63</v>
+      </c>
       <c r="B11" s="45">
         <v>8</v>
       </c>
       <c r="C11" s="47">
-        <v>24444</v>
+        <v>20720.04</v>
       </c>
       <c r="D11" s="47">
-        <v>45396</v>
+        <v>42067.96</v>
       </c>
       <c r="E11" s="45">
         <v>8</v>
@@ -5152,15 +5156,18 @@
       <c r="X11" s="61"/>
       <c r="Y11" s="60"/>
     </row>
-    <row r="12" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="45" t="s">
+        <v>64</v>
+      </c>
       <c r="B12" s="45">
         <v>9</v>
       </c>
       <c r="C12" s="47">
-        <v>24780.9</v>
+        <v>16868.52</v>
       </c>
       <c r="D12" s="47">
-        <v>48104.1</v>
+        <v>29988.48</v>
       </c>
       <c r="E12" s="45">
         <v>9</v>
@@ -5182,15 +5189,18 @@
       <c r="X12" s="61"/>
       <c r="Y12" s="60"/>
     </row>
-    <row r="13" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="45" t="s">
+        <v>65</v>
+      </c>
       <c r="B13" s="45">
         <v>10</v>
       </c>
       <c r="C13" s="47">
-        <v>21190.2</v>
+        <v>18546.28</v>
       </c>
       <c r="D13" s="47">
-        <v>49443.8</v>
+        <v>30259.72</v>
       </c>
       <c r="E13" s="45">
         <v>10</v>
@@ -5212,15 +5222,18 @@
       <c r="X13" s="61"/>
       <c r="Y13" s="60"/>
     </row>
-    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="45" t="s">
+        <v>66</v>
+      </c>
       <c r="B14" s="45">
         <v>11</v>
       </c>
       <c r="C14" s="47">
-        <v>20720.04</v>
+        <v>27601.199999999997</v>
       </c>
       <c r="D14" s="47">
-        <v>42067.96</v>
+        <v>39718.800000000003</v>
       </c>
       <c r="E14" s="45">
         <v>11</v>
@@ -5242,15 +5255,18 @@
       <c r="X14" s="61"/>
       <c r="Y14" s="60"/>
     </row>
-    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="45" t="s">
+        <v>67</v>
+      </c>
       <c r="B15" s="45">
         <v>12</v>
       </c>
       <c r="C15" s="47">
-        <v>20171.55</v>
+        <v>23764.3</v>
       </c>
       <c r="D15" s="47">
-        <v>37461.449999999997</v>
+        <v>44133.7</v>
       </c>
       <c r="E15" s="45">
         <v>12</v>
@@ -5272,15 +5288,18 @@
       <c r="X15" s="61"/>
       <c r="Y15" s="60"/>
     </row>
-    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="45" t="s">
+        <v>68</v>
+      </c>
       <c r="B16" s="45">
         <v>13</v>
       </c>
       <c r="C16" s="47">
-        <v>16868.52</v>
+        <v>21522.240000000002</v>
       </c>
       <c r="D16" s="47">
-        <v>29988.48</v>
+        <v>45734.759999999995</v>
       </c>
       <c r="E16" s="45">
         <v>13</v>
@@ -5302,15 +5321,18 @@
       <c r="X16" s="61"/>
       <c r="Y16" s="60"/>
     </row>
-    <row r="17" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="45" t="s">
+        <v>69</v>
+      </c>
       <c r="B17" s="45">
         <v>14</v>
       </c>
       <c r="C17" s="47">
-        <v>18546.28</v>
+        <v>19314.3</v>
       </c>
       <c r="D17" s="47">
-        <v>30259.72</v>
+        <v>45066.7</v>
       </c>
       <c r="E17" s="45">
         <v>14</v>
@@ -5332,15 +5354,18 @@
       <c r="X17" s="61"/>
       <c r="Y17" s="60"/>
     </row>
-    <row r="18" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="45" t="s">
+        <v>70</v>
+      </c>
       <c r="B18" s="45">
         <v>15</v>
       </c>
       <c r="C18" s="47">
-        <v>20102.16</v>
+        <v>19848.32</v>
       </c>
       <c r="D18" s="47">
-        <v>39021.839999999997</v>
+        <v>42177.68</v>
       </c>
       <c r="E18" s="45">
         <v>15</v>
@@ -5362,15 +5387,18 @@
       <c r="X18" s="61"/>
       <c r="Y18" s="60"/>
     </row>
-    <row r="19" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="45" t="s">
+        <v>71</v>
+      </c>
       <c r="B19" s="45">
         <v>16</v>
       </c>
       <c r="C19" s="47">
-        <v>27601.199999999997</v>
+        <v>17854.14</v>
       </c>
       <c r="D19" s="47">
-        <v>39718.800000000003</v>
+        <v>39739.86</v>
       </c>
       <c r="E19" s="45">
         <v>16</v>
@@ -5392,16 +5420,7 @@
       <c r="X19" s="61"/>
       <c r="Y19" s="60"/>
     </row>
-    <row r="20" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="45">
-        <v>17</v>
-      </c>
-      <c r="C20" s="47">
-        <v>23764.3</v>
-      </c>
-      <c r="D20" s="47">
-        <v>44133.7</v>
-      </c>
+    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E20" s="45">
         <v>17</v>
       </c>
@@ -5422,16 +5441,9 @@
       <c r="X20" s="61"/>
       <c r="Y20" s="60"/>
     </row>
-    <row r="21" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="45">
-        <v>18</v>
-      </c>
-      <c r="C21" s="47">
-        <v>23438.240000000002</v>
-      </c>
-      <c r="D21" s="47">
-        <v>45497.759999999995</v>
-      </c>
+    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="45">
         <v>18</v>
       </c>
@@ -5452,16 +5464,7 @@
       <c r="X21" s="61"/>
       <c r="Y21" s="60"/>
     </row>
-    <row r="22" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="45">
-        <v>19</v>
-      </c>
-      <c r="C22" s="47">
-        <v>21522.240000000002</v>
-      </c>
-      <c r="D22" s="47">
-        <v>45734.759999999995</v>
-      </c>
+    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E22" s="45">
         <v>19</v>
       </c>
@@ -5482,16 +5485,7 @@
       <c r="X22" s="61"/>
       <c r="Y22" s="60"/>
     </row>
-    <row r="23" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="45">
-        <v>20</v>
-      </c>
-      <c r="C23" s="47">
-        <v>19314.3</v>
-      </c>
-      <c r="D23" s="47">
-        <v>45066.7</v>
-      </c>
+    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E23" s="45">
         <v>20</v>
       </c>
@@ -5512,16 +5506,9 @@
       <c r="X23" s="61"/>
       <c r="Y23" s="60"/>
     </row>
-    <row r="24" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="45">
-        <v>21</v>
-      </c>
-      <c r="C24" s="47">
-        <v>21009.120000000003</v>
-      </c>
-      <c r="D24" s="47">
-        <v>42654.879999999997</v>
-      </c>
+    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="45">
         <v>21</v>
       </c>
@@ -5542,16 +5529,7 @@
       <c r="X24" s="61"/>
       <c r="Y24" s="60"/>
     </row>
-    <row r="25" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="45">
-        <v>22</v>
-      </c>
-      <c r="C25" s="47">
-        <v>19848.32</v>
-      </c>
-      <c r="D25" s="47">
-        <v>42177.68</v>
-      </c>
+    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E25" s="45">
         <v>22</v>
       </c>
@@ -5572,16 +5550,7 @@
       <c r="X25" s="61"/>
       <c r="Y25" s="60"/>
     </row>
-    <row r="26" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="45">
-        <v>23</v>
-      </c>
-      <c r="C26" s="47">
-        <v>17854.14</v>
-      </c>
-      <c r="D26" s="47">
-        <v>39739.86</v>
-      </c>
+    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E26" s="45">
         <v>23</v>
       </c>
@@ -5602,16 +5571,9 @@
       <c r="X26" s="61"/>
       <c r="Y26" s="60"/>
     </row>
-    <row r="27" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="45">
-        <v>24</v>
-      </c>
-      <c r="C27" s="47">
-        <v>14758.5</v>
-      </c>
-      <c r="D27" s="47">
-        <v>34436.5</v>
-      </c>
+    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="45">
         <v>24</v>
       </c>
@@ -5632,191 +5594,37 @@
       <c r="X27" s="61"/>
       <c r="Y27" s="60"/>
     </row>
-    <row r="28" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="45">
-        <v>25</v>
-      </c>
-      <c r="C28" s="47">
-        <v>17086.080000000002</v>
-      </c>
-      <c r="D28" s="47">
-        <v>34689.919999999998</v>
-      </c>
-      <c r="E28" s="45">
-        <v>25</v>
-      </c>
-      <c r="F28" s="45">
-        <v>0.27</v>
-      </c>
-      <c r="G28" s="45">
-        <v>0</v>
-      </c>
-      <c r="H28" s="45">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I28" s="45">
-        <v>0</v>
-      </c>
+    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
       <c r="V28" s="59"/>
       <c r="W28" s="60"/>
       <c r="X28" s="61"/>
       <c r="Y28" s="60"/>
     </row>
-    <row r="29" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B29" s="45">
-        <v>26</v>
-      </c>
-      <c r="C29" s="47">
-        <v>18099.199999999997</v>
-      </c>
-      <c r="D29" s="47">
-        <v>33612.800000000003</v>
-      </c>
-      <c r="E29" s="45">
-        <v>26</v>
-      </c>
-      <c r="F29" s="45">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G29" s="45">
-        <v>0</v>
-      </c>
-      <c r="H29" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="I29" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B30" s="45">
-        <v>27</v>
-      </c>
-      <c r="C30" s="47">
-        <v>20811.02</v>
-      </c>
-      <c r="D30" s="47">
-        <v>35434.979999999996</v>
-      </c>
-      <c r="E30" s="45">
-        <v>27</v>
-      </c>
-      <c r="F30" s="45">
-        <v>0.32</v>
-      </c>
-      <c r="G30" s="45">
-        <v>0</v>
-      </c>
-      <c r="H30" s="45">
-        <v>0.42</v>
-      </c>
-      <c r="I30" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B31" s="45">
-        <v>28</v>
-      </c>
-      <c r="C31" s="47">
-        <v>29005.449999999997</v>
-      </c>
-      <c r="D31" s="47">
-        <v>41739.550000000003</v>
-      </c>
-      <c r="E31" s="45">
-        <v>28</v>
-      </c>
-      <c r="F31" s="45">
-        <v>0.37</v>
-      </c>
-      <c r="G31" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="H31" s="45">
-        <v>0.43</v>
-      </c>
-      <c r="I31" s="45">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="32" spans="2:25" x14ac:dyDescent="0.35">
-      <c r="B32" s="45">
-        <v>29</v>
-      </c>
-      <c r="C32" s="47">
-        <v>25128.38</v>
-      </c>
-      <c r="D32" s="47">
-        <v>48778.619999999995</v>
-      </c>
-      <c r="E32" s="45">
-        <v>29</v>
-      </c>
-      <c r="F32" s="45">
-        <v>0.37</v>
-      </c>
-      <c r="G32" s="45">
-        <v>0.12</v>
-      </c>
-      <c r="H32" s="45">
-        <v>0.36</v>
-      </c>
-      <c r="I32" s="45">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B33" s="45">
-        <v>30</v>
-      </c>
-      <c r="C33" s="47">
-        <v>20951.000000000004</v>
-      </c>
-      <c r="D33" s="47">
-        <v>53874</v>
-      </c>
-      <c r="E33" s="45">
-        <v>30</v>
-      </c>
-      <c r="F33" s="45">
-        <v>0.39</v>
-      </c>
-      <c r="G33" s="45">
-        <v>0.24</v>
-      </c>
-      <c r="H33" s="45">
-        <v>0.38</v>
-      </c>
-      <c r="I33" s="45">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B34" s="45">
-        <v>31</v>
-      </c>
-      <c r="C34" s="47">
-        <v>25526.899999999998</v>
-      </c>
-      <c r="D34" s="47">
-        <v>47407.100000000006</v>
-      </c>
-      <c r="E34" s="45">
-        <v>31</v>
-      </c>
-      <c r="F34" s="45">
-        <v>0.35</v>
-      </c>
-      <c r="G34" s="45">
-        <v>0.26</v>
-      </c>
-      <c r="H34" s="45">
-        <v>0.42</v>
-      </c>
-      <c r="I34" s="45">
-        <v>0.22</v>
-      </c>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
       <c r="M34" s="45" t="s">
         <v>46</v>
       </c>
@@ -5824,31 +5632,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B35" s="45">
-        <v>32</v>
-      </c>
-      <c r="C35" s="47">
-        <v>26539.200000000001</v>
-      </c>
-      <c r="D35" s="47">
-        <v>43300.800000000003</v>
-      </c>
-      <c r="E35" s="45">
-        <v>32</v>
-      </c>
-      <c r="F35" s="45">
-        <v>0.32</v>
-      </c>
-      <c r="G35" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="H35" s="45">
-        <v>0.36</v>
-      </c>
-      <c r="I35" s="45">
-        <v>7.0000000000000007E-2</v>
-      </c>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
       <c r="L35" s="45" t="s">
         <v>44</v>
       </c>
@@ -5861,31 +5647,9 @@
         <v>1781.1999999999996</v>
       </c>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B36" s="45">
-        <v>33</v>
-      </c>
-      <c r="C36" s="47">
-        <v>21865.5</v>
-      </c>
-      <c r="D36" s="47">
-        <v>51019.5</v>
-      </c>
-      <c r="E36" s="45">
-        <v>33</v>
-      </c>
-      <c r="F36" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="G36" s="45">
-        <v>0</v>
-      </c>
-      <c r="H36" s="45">
-        <v>0.38</v>
-      </c>
-      <c r="I36" s="45">
-        <v>0</v>
-      </c>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
       <c r="L36" s="45" t="s">
         <v>45</v>
       </c>
@@ -5898,135 +5662,25 @@
         <v>1007.4000000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B37" s="45">
-        <v>34</v>
-      </c>
-      <c r="C37" s="47">
-        <v>23309.22</v>
-      </c>
-      <c r="D37" s="47">
-        <v>47324.78</v>
-      </c>
-      <c r="E37" s="45">
-        <v>34</v>
-      </c>
-      <c r="F37" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="G37" s="45">
-        <v>0</v>
-      </c>
-      <c r="H37" s="45">
-        <v>0.35</v>
-      </c>
-      <c r="I37" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B38" s="45">
-        <v>35</v>
-      </c>
-      <c r="C38" s="47">
-        <v>21975.8</v>
-      </c>
-      <c r="D38" s="47">
-        <v>40812.199999999997</v>
-      </c>
-      <c r="E38" s="45">
-        <v>35</v>
-      </c>
-      <c r="F38" s="45">
-        <v>0.37</v>
-      </c>
-      <c r="G38" s="45">
-        <v>0</v>
-      </c>
-      <c r="H38" s="45">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I38" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B39" s="45">
-        <v>36</v>
-      </c>
-      <c r="C39" s="47">
-        <v>20747.88</v>
-      </c>
-      <c r="D39" s="47">
-        <v>36885.119999999995</v>
-      </c>
-      <c r="E39" s="45">
-        <v>36</v>
-      </c>
-      <c r="F39" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="G39" s="45">
-        <v>0</v>
-      </c>
-      <c r="H39" s="45">
-        <v>0.25</v>
-      </c>
-      <c r="I39" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B40" s="45">
-        <v>37</v>
-      </c>
-      <c r="C40" s="47">
-        <v>16443.740000000002</v>
-      </c>
-      <c r="D40" s="47">
-        <v>26829.26</v>
-      </c>
-      <c r="E40" s="45">
-        <v>37</v>
-      </c>
-      <c r="F40" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="G40" s="45">
-        <v>0</v>
-      </c>
-      <c r="H40" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="I40" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B41" s="45">
-        <v>38</v>
-      </c>
-      <c r="C41" s="47">
-        <v>14571.720000000001</v>
-      </c>
-      <c r="D41" s="47">
-        <v>28286.28</v>
-      </c>
-      <c r="E41" s="45">
-        <v>38</v>
-      </c>
-      <c r="F41" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="G41" s="45">
-        <v>0</v>
-      </c>
-      <c r="H41" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="I41" s="45">
-        <v>0</v>
-      </c>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
       <c r="N41" s="49" t="s">
         <v>5</v>
       </c>
@@ -6040,31 +5694,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B42" s="45">
-        <v>39</v>
-      </c>
-      <c r="C42" s="47">
-        <v>13421.779999999999</v>
-      </c>
-      <c r="D42" s="47">
-        <v>32860.22</v>
-      </c>
-      <c r="E42" s="45">
-        <v>39</v>
-      </c>
-      <c r="F42" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="G42" s="45">
-        <v>0.04</v>
-      </c>
-      <c r="H42" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="I42" s="45">
-        <v>0</v>
-      </c>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
       <c r="N42" s="49" t="s">
         <v>25</v>
       </c>
@@ -6078,31 +5710,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B43" s="45">
-        <v>40</v>
-      </c>
-      <c r="C43" s="47">
-        <v>18666.899999999998</v>
-      </c>
-      <c r="D43" s="47">
-        <v>34667.100000000006</v>
-      </c>
-      <c r="E43" s="45">
-        <v>40</v>
-      </c>
-      <c r="F43" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="G43" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="H43" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="I43" s="45">
-        <v>0.01</v>
-      </c>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
       <c r="L43" s="46" t="s">
         <v>20</v>
       </c>
@@ -6123,31 +5733,9 @@
         <v>1007.4000000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B44" s="45">
-        <v>41</v>
-      </c>
-      <c r="C44" s="47">
-        <v>19299.760000000002</v>
-      </c>
-      <c r="D44" s="47">
-        <v>37464.239999999998</v>
-      </c>
-      <c r="E44" s="45">
-        <v>41</v>
-      </c>
-      <c r="F44" s="45">
-        <v>0.09</v>
-      </c>
-      <c r="G44" s="45">
-        <v>0.39</v>
-      </c>
-      <c r="H44" s="45">
-        <v>0.06</v>
-      </c>
-      <c r="I44" s="45">
-        <v>0.12</v>
-      </c>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
       <c r="L44" s="46" t="s">
         <v>39</v>
       </c>
@@ -6168,57 +5756,13 @@
         <v>0.115</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B45" s="45">
-        <v>42</v>
-      </c>
-      <c r="C45" s="47">
-        <v>17843.52</v>
-      </c>
-      <c r="D45" s="47">
-        <v>37917.479999999996</v>
-      </c>
-      <c r="E45" s="45">
-        <v>42</v>
-      </c>
-      <c r="F45" s="45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G45" s="45">
-        <v>0.53</v>
-      </c>
-      <c r="H45" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="I45" s="45">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B46" s="45">
-        <v>43</v>
-      </c>
-      <c r="C46" s="47">
-        <v>21335.17</v>
-      </c>
-      <c r="D46" s="47">
-        <v>30701.83</v>
-      </c>
-      <c r="E46" s="45">
-        <v>43</v>
-      </c>
-      <c r="F46" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="G46" s="45">
-        <v>0.53</v>
-      </c>
-      <c r="H46" s="45">
-        <v>0.06</v>
-      </c>
-      <c r="I46" s="45">
-        <v>0.18</v>
-      </c>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
       <c r="N46" s="45">
         <v>2200</v>
       </c>
@@ -6226,83 +5770,17 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B47" s="45">
-        <v>44</v>
-      </c>
-      <c r="C47" s="47">
-        <v>17866.099999999999</v>
-      </c>
-      <c r="D47" s="47">
-        <v>33179.9</v>
-      </c>
-      <c r="E47" s="45">
-        <v>44</v>
-      </c>
-      <c r="F47" s="45">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G47" s="45">
-        <v>0.38</v>
-      </c>
-      <c r="H47" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="I47" s="45">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B48" s="45">
-        <v>45</v>
-      </c>
-      <c r="C48" s="47">
-        <v>20680.36</v>
-      </c>
-      <c r="D48" s="47">
-        <v>33741.64</v>
-      </c>
-      <c r="E48" s="45">
-        <v>45</v>
-      </c>
-      <c r="F48" s="45">
-        <v>0.22</v>
-      </c>
-      <c r="G48" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="H48" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="I48" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B49" s="45">
-        <v>46</v>
-      </c>
-      <c r="C49" s="47">
-        <v>16310.65</v>
-      </c>
-      <c r="D49" s="47">
-        <v>36304.35</v>
-      </c>
-      <c r="E49" s="45">
-        <v>46</v>
-      </c>
-      <c r="F49" s="45">
-        <v>0.22</v>
-      </c>
-      <c r="G49" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="H49" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="I49" s="45">
-        <v>0</v>
-      </c>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
       <c r="N49" s="53">
         <v>0.25166666666666671</v>
       </c>
@@ -6316,72 +5794,28 @@
         <v>0.11541666666666665</v>
       </c>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B50" s="45">
-        <v>47</v>
-      </c>
-      <c r="C50" s="47">
-        <v>14040</v>
-      </c>
-      <c r="D50" s="47">
-        <v>32760</v>
-      </c>
-      <c r="E50" s="45">
-        <v>47</v>
-      </c>
-      <c r="F50" s="45">
-        <v>0.19</v>
-      </c>
-      <c r="G50" s="45">
-        <v>0</v>
-      </c>
-      <c r="H50" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="I50" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B51" s="45">
-        <v>48</v>
-      </c>
-      <c r="C51" s="47">
-        <v>13247.19</v>
-      </c>
-      <c r="D51" s="47">
-        <v>26895.809999999998</v>
-      </c>
-      <c r="E51" s="45">
-        <v>48</v>
-      </c>
-      <c r="F51" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="G51" s="45">
-        <v>0</v>
-      </c>
-      <c r="H51" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="I51" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C52" s="47"/>
       <c r="D52" s="47"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C53" s="47"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C54" s="47"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C55" s="47"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C56" s="47"/>
       <c r="D56" s="47"/>
       <c r="F56" s="53"/>
@@ -6389,7 +5823,7 @@
       <c r="H56" s="53"/>
       <c r="I56" s="53"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C57" s="47"/>
       <c r="D57" s="47"/>
       <c r="F57" s="53"/>
@@ -6397,7 +5831,7 @@
       <c r="H57" s="53"/>
       <c r="I57" s="53"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C58" s="47"/>
       <c r="D58" s="47"/>
       <c r="F58" s="53"/>
@@ -6405,7 +5839,7 @@
       <c r="H58" s="53"/>
       <c r="I58" s="53"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C59" s="47"/>
       <c r="D59" s="47"/>
       <c r="F59" s="53"/>
@@ -6413,7 +5847,7 @@
       <c r="H59" s="53"/>
       <c r="I59" s="53"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C60" s="47"/>
       <c r="D60" s="47"/>
       <c r="F60" s="53"/>
@@ -6421,7 +5855,7 @@
       <c r="H60" s="53"/>
       <c r="I60" s="53"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C61" s="47"/>
       <c r="D61" s="47"/>
       <c r="F61" s="53"/>
@@ -6429,7 +5863,7 @@
       <c r="H61" s="53"/>
       <c r="I61" s="53"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C62" s="47"/>
       <c r="D62" s="47"/>
       <c r="F62" s="53"/>
@@ -6437,7 +5871,7 @@
       <c r="H62" s="53"/>
       <c r="I62" s="53"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C63" s="47"/>
       <c r="D63" s="47"/>
       <c r="F63" s="53"/>
@@ -6445,7 +5879,7 @@
       <c r="H63" s="53"/>
       <c r="I63" s="53"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C64" s="47"/>
       <c r="D64" s="47"/>
       <c r="F64" s="53"/>
@@ -6706,6 +6140,7 @@
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="F1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6716,7 +6151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFA3B40-044F-436C-80C0-806BB9FE0DB5}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -6905,7 +6340,7 @@
         <f>B14/B28</f>
         <v>1.3401639344262297</v>
       </c>
-      <c r="C33" s="67">
+      <c r="C33" s="62">
         <v>1.5</v>
       </c>
     </row>

--- a/Two node models/in.xlsx
+++ b/Two node models/in.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Two node models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAFC22CE-78DC-43F7-BC26-247EE36E58F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9F5CBE-8AE2-4A4B-8565-A4E14169C1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Availability</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>22:30-24:00</t>
+  </si>
+  <si>
+    <t>Soll</t>
   </si>
 </sst>
 </file>
@@ -850,7 +853,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1131,7 +1134,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589632111"/>
@@ -1191,7 +1194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589627951"/>
@@ -1232,7 +1235,7 @@
       <a:pPr>
         <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1284,7 +1287,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1330,40 +1333,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.57999999999999996</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.51</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.4</c:v>
+                  <c:v>0.34499999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.24</c:v>
+                  <c:v>0.23499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23</c:v>
+                  <c:v>0.215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11</c:v>
+                  <c:v>0.11499999999999901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.06</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1420,31 +1423,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.02</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17</c:v>
+                  <c:v>6.5000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.27</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24</c:v>
+                  <c:v>0.40500000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1492,40 +1495,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.51</c:v>
+                  <c:v>0.315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.33</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.18</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.08</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17</c:v>
+                  <c:v>0.14499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1579,34 +1582,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.03</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.25</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31</c:v>
+                  <c:v>0.39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.32</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.09</c:v>
+                  <c:v>0.32500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,7 +1674,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509294543"/>
@@ -1730,7 +1733,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509296207"/>
@@ -1772,7 +1775,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1802,7 +1805,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1853,7 +1856,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1949,55 +1952,55 @@
             <c:numRef>
               <c:f>timeseries!$C$4:$C$19</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>15532.8</c:v>
+                  <c:v>14924.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17064.96</c:v>
+                  <c:v>14587.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21223.5</c:v>
+                  <c:v>15045.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21433.03</c:v>
+                  <c:v>16594.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20421.52</c:v>
+                  <c:v>18776.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24444</c:v>
+                  <c:v>20142.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21190.2</c:v>
+                  <c:v>20846.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20720.04</c:v>
+                  <c:v>21167.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16868.52</c:v>
+                  <c:v>20634.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18546.28</c:v>
+                  <c:v>20019.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27601.199999999997</c:v>
+                  <c:v>19793.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23764.3</c:v>
+                  <c:v>20247.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21522.240000000002</c:v>
+                  <c:v>20080.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19314.3</c:v>
+                  <c:v>18874.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19848.32</c:v>
+                  <c:v>17420.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17854.14</c:v>
+                  <c:v>15876.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2095,55 +2098,55 @@
             <c:numRef>
               <c:f>timeseries!$D$4:$D$19</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>36243.199999999997</c:v>
+                  <c:v>29849.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34647.040000000001</c:v>
+                  <c:v>29175.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49521.5</c:v>
+                  <c:v>30091.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52473.97</c:v>
+                  <c:v>33189.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52512.479999999996</c:v>
+                  <c:v>37553.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45396</c:v>
+                  <c:v>40284.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49443.8</c:v>
+                  <c:v>41693.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42067.96</c:v>
+                  <c:v>42335.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29988.48</c:v>
+                  <c:v>41269.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30259.72</c:v>
+                  <c:v>40039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39718.800000000003</c:v>
+                  <c:v>39586.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44133.7</c:v>
+                  <c:v>40495</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45734.759999999995</c:v>
+                  <c:v>40161.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45066.7</c:v>
+                  <c:v>37748.6</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42177.68</c:v>
+                  <c:v>34841.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>39739.86</c:v>
+                  <c:v>31753.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2208,7 +2211,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509307439"/>
@@ -2239,7 +2242,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2267,7 +2270,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509309103"/>
@@ -2309,7 +2312,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2339,7 +2342,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4831,13 +4834,13 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E4" sqref="E4:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="8.7265625" style="45"/>
-    <col min="5" max="5" width="2.90625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" style="45" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="45"/>
   </cols>
   <sheetData>
@@ -4903,25 +4906,25 @@
       <c r="B4" s="45">
         <v>1</v>
       </c>
-      <c r="C4" s="47">
-        <v>15532.8</v>
-      </c>
-      <c r="D4" s="47">
-        <v>36243.199999999997</v>
+      <c r="C4">
+        <v>14924.7</v>
+      </c>
+      <c r="D4">
+        <v>29849.5</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
       </c>
-      <c r="F4" s="45">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G4" s="45">
+      <c r="F4">
+        <v>0.43</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4" s="45">
-        <v>0.51</v>
-      </c>
-      <c r="I4" s="45">
+      <c r="H4">
+        <v>0.315</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
@@ -4932,25 +4935,25 @@
       <c r="B5" s="45">
         <v>2</v>
       </c>
-      <c r="C5" s="47">
-        <v>17064.96</v>
-      </c>
-      <c r="D5" s="47">
-        <v>34647.040000000001</v>
+      <c r="C5">
+        <v>14587.7</v>
+      </c>
+      <c r="D5">
+        <v>29175.4</v>
       </c>
       <c r="E5" s="45">
         <v>2</v>
       </c>
-      <c r="F5" s="45">
-        <v>0.51</v>
-      </c>
-      <c r="G5" s="45">
+      <c r="F5">
+        <v>0.39</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5" s="45">
-        <v>0.42</v>
-      </c>
-      <c r="I5" s="45">
+      <c r="H5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
       <c r="V5" s="56"/>
@@ -4965,26 +4968,26 @@
       <c r="B6" s="45">
         <v>3</v>
       </c>
-      <c r="C6" s="47">
-        <v>21223.5</v>
-      </c>
-      <c r="D6" s="47">
-        <v>49521.5</v>
+      <c r="C6">
+        <v>15045.9</v>
+      </c>
+      <c r="D6">
+        <v>30091.9</v>
       </c>
       <c r="E6" s="45">
         <v>3</v>
       </c>
-      <c r="F6" s="45">
-        <v>0.4</v>
-      </c>
-      <c r="G6" s="45">
+      <c r="F6">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="I6" s="45">
-        <v>0.03</v>
+      <c r="H6">
+        <v>0.22</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
       </c>
       <c r="V6" s="59"/>
       <c r="W6" s="60"/>
@@ -4998,26 +5001,26 @@
       <c r="B7" s="45">
         <v>4</v>
       </c>
-      <c r="C7" s="47">
-        <v>21433.03</v>
-      </c>
-      <c r="D7" s="47">
-        <v>52473.97</v>
+      <c r="C7">
+        <v>16594.599999999999</v>
+      </c>
+      <c r="D7">
+        <v>33189.199999999997</v>
       </c>
       <c r="E7" s="45">
         <v>4</v>
       </c>
-      <c r="F7" s="45">
-        <v>0.33</v>
-      </c>
-      <c r="G7" s="45">
-        <v>0.02</v>
-      </c>
-      <c r="H7" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="I7" s="45">
-        <v>0.12</v>
+      <c r="F7">
+        <v>0.3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.01</v>
       </c>
       <c r="V7" s="59"/>
       <c r="W7" s="60"/>
@@ -5031,26 +5034,26 @@
       <c r="B8" s="45">
         <v>5</v>
       </c>
-      <c r="C8" s="47">
-        <v>20421.52</v>
-      </c>
-      <c r="D8" s="47">
-        <v>52512.479999999996</v>
+      <c r="C8">
+        <v>18776.7</v>
+      </c>
+      <c r="D8">
+        <v>37553.300000000003</v>
       </c>
       <c r="E8" s="45">
         <v>5</v>
       </c>
-      <c r="F8" s="45">
-        <v>0.24</v>
-      </c>
-      <c r="G8" s="45">
-        <v>0.17</v>
-      </c>
-      <c r="H8" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="I8" s="45">
-        <v>0.25</v>
+      <c r="F8">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="G8">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H8">
+        <v>0.09</v>
+      </c>
+      <c r="I8">
+        <v>0.13500000000000001</v>
       </c>
       <c r="V8" s="59"/>
       <c r="W8" s="60"/>
@@ -5064,26 +5067,26 @@
       <c r="B9" s="45">
         <v>6</v>
       </c>
-      <c r="C9" s="47">
-        <v>24444</v>
-      </c>
-      <c r="D9" s="47">
-        <v>45396</v>
+      <c r="C9">
+        <v>20142.400000000001</v>
+      </c>
+      <c r="D9">
+        <v>40284.800000000003</v>
       </c>
       <c r="E9" s="45">
         <v>6</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9">
         <v>0.22</v>
       </c>
-      <c r="G9" s="45">
+      <c r="G9">
         <v>0.27</v>
       </c>
-      <c r="H9" s="45">
-        <v>0.12</v>
-      </c>
-      <c r="I9" s="45">
-        <v>0.31</v>
+      <c r="H9">
+        <v>0.05</v>
+      </c>
+      <c r="I9">
+        <v>0.39</v>
       </c>
       <c r="V9" s="59"/>
       <c r="W9" s="60"/>
@@ -5097,26 +5100,26 @@
       <c r="B10" s="45">
         <v>7</v>
       </c>
-      <c r="C10" s="47">
-        <v>21190.2</v>
-      </c>
-      <c r="D10" s="47">
-        <v>49443.8</v>
+      <c r="C10">
+        <v>20846.900000000001</v>
+      </c>
+      <c r="D10">
+        <v>41693.9</v>
       </c>
       <c r="E10" s="45">
         <v>7</v>
       </c>
-      <c r="F10" s="45">
-        <v>0.23</v>
-      </c>
-      <c r="G10" s="45">
-        <v>0.24</v>
-      </c>
-      <c r="H10" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="I10" s="45">
-        <v>0.32</v>
+      <c r="F10">
+        <v>0.215</v>
+      </c>
+      <c r="G10">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="H10">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.47</v>
       </c>
       <c r="V10" s="59"/>
       <c r="W10" s="60"/>
@@ -5130,26 +5133,26 @@
       <c r="B11" s="45">
         <v>8</v>
       </c>
-      <c r="C11" s="47">
-        <v>20720.04</v>
-      </c>
-      <c r="D11" s="47">
-        <v>42067.96</v>
+      <c r="C11">
+        <v>21167.8</v>
+      </c>
+      <c r="D11">
+        <v>42335.7</v>
       </c>
       <c r="E11" s="45">
         <v>8</v>
       </c>
-      <c r="F11" s="45">
-        <v>0.24</v>
-      </c>
-      <c r="G11" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="H11" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="I11" s="45">
-        <v>0.26</v>
+      <c r="F11">
+        <v>0.2</v>
+      </c>
+      <c r="G11">
+        <v>0.44</v>
+      </c>
+      <c r="H11">
+        <v>0.13</v>
+      </c>
+      <c r="I11">
+        <v>0.47</v>
       </c>
       <c r="V11" s="59"/>
       <c r="W11" s="60"/>
@@ -5163,26 +5166,26 @@
       <c r="B12" s="45">
         <v>9</v>
       </c>
-      <c r="C12" s="47">
-        <v>16868.52</v>
-      </c>
-      <c r="D12" s="47">
-        <v>29988.48</v>
+      <c r="C12">
+        <v>20634.900000000001</v>
+      </c>
+      <c r="D12">
+        <v>41269.699999999997</v>
       </c>
       <c r="E12" s="45">
         <v>9</v>
       </c>
-      <c r="F12" s="45">
-        <v>0.2</v>
-      </c>
-      <c r="G12" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="H12" s="45">
-        <v>0.17</v>
-      </c>
-      <c r="I12" s="45">
-        <v>0.09</v>
+      <c r="F12">
+        <v>0.18</v>
+      </c>
+      <c r="G12">
+        <v>0.38</v>
+      </c>
+      <c r="H12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.32500000000000001</v>
       </c>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
@@ -5196,26 +5199,26 @@
       <c r="B13" s="45">
         <v>10</v>
       </c>
-      <c r="C13" s="47">
-        <v>18546.28</v>
-      </c>
-      <c r="D13" s="47">
-        <v>30259.72</v>
+      <c r="C13">
+        <v>20019.5</v>
+      </c>
+      <c r="D13">
+        <v>40039</v>
       </c>
       <c r="E13" s="45">
         <v>10</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13">
         <v>0.15</v>
       </c>
-      <c r="G13" s="45">
-        <v>0</v>
-      </c>
-      <c r="H13" s="45">
+      <c r="G13">
+        <v>0.21</v>
+      </c>
+      <c r="H13">
+        <v>0.16</v>
+      </c>
+      <c r="I13">
         <v>0.15</v>
-      </c>
-      <c r="I13" s="45">
-        <v>0</v>
       </c>
       <c r="V13" s="59"/>
       <c r="W13" s="60"/>
@@ -5229,26 +5232,26 @@
       <c r="B14" s="45">
         <v>11</v>
       </c>
-      <c r="C14" s="47">
-        <v>27601.199999999997</v>
-      </c>
-      <c r="D14" s="47">
-        <v>39718.800000000003</v>
+      <c r="C14">
+        <v>19793.400000000001</v>
+      </c>
+      <c r="D14">
+        <v>39586.699999999997</v>
       </c>
       <c r="E14" s="45">
         <v>11</v>
       </c>
-      <c r="F14" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="G14" s="45">
-        <v>0</v>
-      </c>
-      <c r="H14" s="45">
-        <v>0.13</v>
-      </c>
-      <c r="I14" s="45">
-        <v>0</v>
+      <c r="F14">
+        <v>0.11499999999999901</v>
+      </c>
+      <c r="G14">
+        <v>0.08</v>
+      </c>
+      <c r="H14">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.06</v>
       </c>
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
@@ -5262,26 +5265,26 @@
       <c r="B15" s="45">
         <v>12</v>
       </c>
-      <c r="C15" s="47">
-        <v>23764.3</v>
-      </c>
-      <c r="D15" s="47">
-        <v>44133.7</v>
+      <c r="C15">
+        <v>20247.5</v>
+      </c>
+      <c r="D15">
+        <v>40495</v>
       </c>
       <c r="E15" s="45">
         <v>12</v>
       </c>
-      <c r="F15" s="45">
-        <v>0.06</v>
-      </c>
-      <c r="G15" s="45">
-        <v>0</v>
-      </c>
-      <c r="H15" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="I15" s="45">
-        <v>0</v>
+      <c r="F15">
+        <v>0.08</v>
+      </c>
+      <c r="G15">
+        <v>0.01</v>
+      </c>
+      <c r="H15">
+        <v>0.11</v>
+      </c>
+      <c r="I15">
+        <v>0.02</v>
       </c>
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
@@ -5295,25 +5298,25 @@
       <c r="B16" s="45">
         <v>13</v>
       </c>
-      <c r="C16" s="47">
-        <v>21522.240000000002</v>
-      </c>
-      <c r="D16" s="47">
-        <v>45734.759999999995</v>
+      <c r="C16">
+        <v>20080.900000000001</v>
+      </c>
+      <c r="D16">
+        <v>40161.800000000003</v>
       </c>
       <c r="E16" s="45">
         <v>13</v>
       </c>
-      <c r="F16" s="45">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G16" s="45">
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
-      <c r="H16" s="45">
-        <v>0.05</v>
-      </c>
-      <c r="I16" s="45">
+      <c r="H16">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="I16">
         <v>0</v>
       </c>
       <c r="V16" s="59"/>
@@ -5328,25 +5331,25 @@
       <c r="B17" s="45">
         <v>14</v>
       </c>
-      <c r="C17" s="47">
-        <v>19314.3</v>
-      </c>
-      <c r="D17" s="47">
-        <v>45066.7</v>
+      <c r="C17">
+        <v>18874.3</v>
+      </c>
+      <c r="D17">
+        <v>37748.6</v>
       </c>
       <c r="E17" s="45">
         <v>14</v>
       </c>
-      <c r="F17" s="45">
-        <v>0.08</v>
-      </c>
-      <c r="G17" s="45">
+      <c r="F17">
+        <v>0.09</v>
+      </c>
+      <c r="G17">
         <v>0</v>
       </c>
-      <c r="H17" s="45">
-        <v>0.1</v>
-      </c>
-      <c r="I17" s="45">
+      <c r="H17">
+        <v>0.13</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
       <c r="V17" s="59"/>
@@ -5361,26 +5364,26 @@
       <c r="B18" s="45">
         <v>15</v>
       </c>
-      <c r="C18" s="47">
-        <v>19848.32</v>
-      </c>
-      <c r="D18" s="47">
-        <v>42177.68</v>
+      <c r="C18">
+        <v>17420.900000000001</v>
+      </c>
+      <c r="D18">
+        <v>34841.800000000003</v>
       </c>
       <c r="E18" s="45">
         <v>15</v>
       </c>
-      <c r="F18" s="45">
-        <v>0.13</v>
-      </c>
-      <c r="G18" s="45">
-        <v>0.04</v>
-      </c>
-      <c r="H18" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="I18" s="45">
-        <v>0.03</v>
+      <c r="F18">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
       </c>
       <c r="V18" s="59"/>
       <c r="W18" s="60"/>
@@ -5394,26 +5397,26 @@
       <c r="B19" s="45">
         <v>16</v>
       </c>
-      <c r="C19" s="47">
-        <v>17854.14</v>
-      </c>
-      <c r="D19" s="47">
-        <v>39739.86</v>
+      <c r="C19">
+        <v>15876.5</v>
+      </c>
+      <c r="D19">
+        <v>31753.1</v>
       </c>
       <c r="E19" s="45">
         <v>16</v>
       </c>
-      <c r="F19" s="45">
-        <v>0.16</v>
-      </c>
-      <c r="G19" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="H19" s="45">
+      <c r="F19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0.15</v>
       </c>
-      <c r="I19" s="45">
-        <v>0.13</v>
+      <c r="I19">
+        <v>0</v>
       </c>
       <c r="V19" s="59"/>
       <c r="W19" s="60"/>
@@ -5421,21 +5424,6 @@
       <c r="Y19" s="60"/>
     </row>
     <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E20" s="45">
-        <v>17</v>
-      </c>
-      <c r="F20" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="G20" s="45">
-        <v>0.39</v>
-      </c>
-      <c r="H20" s="45">
-        <v>0.17</v>
-      </c>
-      <c r="I20" s="45">
-        <v>0.25</v>
-      </c>
       <c r="V20" s="59"/>
       <c r="W20" s="60"/>
       <c r="X20" s="61"/>
@@ -5444,63 +5432,18 @@
     <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
-      <c r="E21" s="45">
-        <v>18</v>
-      </c>
-      <c r="F21" s="45">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G21" s="45">
-        <v>0.45</v>
-      </c>
-      <c r="H21" s="45">
-        <v>0.21</v>
-      </c>
-      <c r="I21" s="45">
-        <v>0.32</v>
-      </c>
       <c r="V21" s="59"/>
       <c r="W21" s="60"/>
       <c r="X21" s="61"/>
       <c r="Y21" s="60"/>
     </row>
     <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E22" s="45">
-        <v>19</v>
-      </c>
-      <c r="F22" s="45">
-        <v>0.36</v>
-      </c>
-      <c r="G22" s="45">
-        <v>0.42</v>
-      </c>
-      <c r="H22" s="45">
-        <v>0.31</v>
-      </c>
-      <c r="I22" s="45">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="V22" s="59"/>
       <c r="W22" s="60"/>
       <c r="X22" s="61"/>
       <c r="Y22" s="60"/>
     </row>
     <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E23" s="45">
-        <v>20</v>
-      </c>
-      <c r="F23" s="45">
-        <v>0.45</v>
-      </c>
-      <c r="G23" s="45">
-        <v>0.38</v>
-      </c>
-      <c r="H23" s="45">
-        <v>0.37</v>
-      </c>
-      <c r="I23" s="45">
-        <v>0.13</v>
-      </c>
       <c r="V23" s="59"/>
       <c r="W23" s="60"/>
       <c r="X23" s="61"/>
@@ -5509,63 +5452,18 @@
     <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
-      <c r="E24" s="45">
-        <v>21</v>
-      </c>
-      <c r="F24" s="45">
-        <v>0.36</v>
-      </c>
-      <c r="G24" s="45">
-        <v>0.15</v>
-      </c>
-      <c r="H24" s="45">
-        <v>0.32</v>
-      </c>
-      <c r="I24" s="45">
-        <v>0.04</v>
-      </c>
       <c r="V24" s="59"/>
       <c r="W24" s="60"/>
       <c r="X24" s="61"/>
       <c r="Y24" s="60"/>
     </row>
     <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E25" s="45">
-        <v>22</v>
-      </c>
-      <c r="F25" s="45">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G25" s="45">
-        <v>0.01</v>
-      </c>
-      <c r="H25" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="I25" s="45">
-        <v>0</v>
-      </c>
       <c r="V25" s="59"/>
       <c r="W25" s="60"/>
       <c r="X25" s="61"/>
       <c r="Y25" s="60"/>
     </row>
     <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E26" s="45">
-        <v>23</v>
-      </c>
-      <c r="F26" s="45">
-        <v>0.23</v>
-      </c>
-      <c r="G26" s="45">
-        <v>0</v>
-      </c>
-      <c r="H26" s="45">
-        <v>0.13</v>
-      </c>
-      <c r="I26" s="45">
-        <v>0</v>
-      </c>
       <c r="V26" s="59"/>
       <c r="W26" s="60"/>
       <c r="X26" s="61"/>
@@ -5574,21 +5472,6 @@
     <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
-      <c r="E27" s="45">
-        <v>24</v>
-      </c>
-      <c r="F27" s="45">
-        <v>0.18</v>
-      </c>
-      <c r="G27" s="45">
-        <v>0</v>
-      </c>
-      <c r="H27" s="45">
-        <v>0.11</v>
-      </c>
-      <c r="I27" s="45">
-        <v>0</v>
-      </c>
       <c r="V27" s="59"/>
       <c r="W27" s="60"/>
       <c r="X27" s="61"/>
@@ -5640,11 +5523,11 @@
       </c>
       <c r="M35" s="47">
         <f>N43</f>
-        <v>2387.1000000000004</v>
+        <v>2087.7999999999997</v>
       </c>
       <c r="N35" s="47">
         <f>P43</f>
-        <v>1781.1999999999996</v>
+        <v>1350.4999999999998</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.35">
@@ -5655,11 +5538,11 @@
       </c>
       <c r="M36" s="47">
         <f>O43</f>
-        <v>627.80000000000007</v>
+        <v>1357.8</v>
       </c>
       <c r="N36" s="47">
         <f>Q43</f>
-        <v>1007.4000000000001</v>
+        <v>1481.8999999999999</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.35">
@@ -5718,19 +5601,19 @@
       </c>
       <c r="N43" s="51">
         <f>(8760*N44)</f>
-        <v>2387.1000000000004</v>
+        <v>2087.7999999999997</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
-        <v>627.80000000000007</v>
+        <v>1357.8</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="0"/>
-        <v>1781.1999999999996</v>
+        <v>1350.4999999999998</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="0"/>
-        <v>1007.4000000000001</v>
+        <v>1481.8999999999999</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.35">
@@ -5741,24 +5624,39 @@
       </c>
       <c r="N44" s="52">
         <f>AVERAGE(F4:F15)</f>
-        <v>0.27250000000000002</v>
+        <v>0.23833333333333329</v>
       </c>
       <c r="O44" s="52">
         <f t="shared" ref="O44:Q44" si="1">AVERAGE(G4:G15)</f>
-        <v>7.166666666666667E-2</v>
+        <v>0.155</v>
       </c>
       <c r="P44" s="52">
         <f t="shared" si="1"/>
-        <v>0.20333333333333328</v>
+        <v>0.15416666666666665</v>
       </c>
       <c r="Q44" s="52">
         <f t="shared" si="1"/>
-        <v>0.115</v>
+        <v>0.16916666666666666</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
+      <c r="L45" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="N45" s="45">
+        <v>21</v>
+      </c>
+      <c r="O45" s="45">
+        <v>12</v>
+      </c>
+      <c r="P45" s="45">
+        <v>15</v>
+      </c>
+      <c r="Q45" s="45">
+        <v>13</v>
+      </c>
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C46" s="47"/>
@@ -5781,18 +5679,10 @@
     <row r="49" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C49" s="47"/>
       <c r="D49" s="47"/>
-      <c r="N49" s="53">
-        <v>0.25166666666666671</v>
-      </c>
-      <c r="O49" s="53">
-        <v>0.10666666666666665</v>
-      </c>
-      <c r="P49" s="53">
-        <v>0.19374999999999998</v>
-      </c>
-      <c r="Q49" s="53">
-        <v>0.11541666666666665</v>
-      </c>
+      <c r="N49" s="53"/>
+      <c r="O49" s="53"/>
+      <c r="P49" s="53"/>
+      <c r="Q49" s="53"/>
     </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C50" s="47"/>

--- a/Two node models/in.xlsx
+++ b/Two node models/in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9F5CBE-8AE2-4A4B-8565-A4E14169C1D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CB3299-83C6-4A6D-9FCC-4F7FBCE6BA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1955,52 +1955,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>14924.7</c:v>
+                  <c:v>14379.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14587.7</c:v>
+                  <c:v>13789.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15045.9</c:v>
+                  <c:v>14153.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16594.599999999999</c:v>
+                  <c:v>17161.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18776.7</c:v>
+                  <c:v>18808.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20142.400000000001</c:v>
+                  <c:v>21544.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20846.900000000001</c:v>
+                  <c:v>22245.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21167.8</c:v>
+                  <c:v>20230.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20634.900000000001</c:v>
+                  <c:v>21542.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20019.5</c:v>
+                  <c:v>19811.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19793.400000000001</c:v>
+                  <c:v>18444.900000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20247.5</c:v>
+                  <c:v>19799.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20080.900000000001</c:v>
+                  <c:v>19702.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>18874.3</c:v>
+                  <c:v>19641.099999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>17420.900000000001</c:v>
+                  <c:v>16586.3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15876.5</c:v>
+                  <c:v>15000.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,52 +2101,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>29849.5</c:v>
+                  <c:v>30394.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29175.4</c:v>
+                  <c:v>29973.200000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30091.9</c:v>
+                  <c:v>30983.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>33189.199999999997</c:v>
+                  <c:v>32621.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37553.300000000003</c:v>
+                  <c:v>37521.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40284.800000000003</c:v>
+                  <c:v>38882.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41693.9</c:v>
+                  <c:v>40295.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42335.7</c:v>
+                  <c:v>43272.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41269.699999999997</c:v>
+                  <c:v>40361.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40039</c:v>
+                  <c:v>40246.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>39586.699999999997</c:v>
+                  <c:v>40935.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40495</c:v>
+                  <c:v>40942.9</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40161.800000000003</c:v>
+                  <c:v>40540.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37748.6</c:v>
+                  <c:v>36981.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34841.800000000003</c:v>
+                  <c:v>35676.300000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31753.1</c:v>
+                  <c:v>32629.200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4833,8 +4833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4907,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>14924.7</v>
+        <v>14379.6</v>
       </c>
       <c r="D4">
-        <v>29849.5</v>
+        <v>30394.6</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
@@ -4936,10 +4936,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>14587.7</v>
+        <v>13789.9</v>
       </c>
       <c r="D5">
-        <v>29175.4</v>
+        <v>29973.200000000001</v>
       </c>
       <c r="E5" s="45">
         <v>2</v>
@@ -4969,10 +4969,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>15045.9</v>
+        <v>14153.9</v>
       </c>
       <c r="D6">
-        <v>30091.9</v>
+        <v>30983.9</v>
       </c>
       <c r="E6" s="45">
         <v>3</v>
@@ -5002,10 +5002,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>16594.599999999999</v>
+        <v>17161.900000000001</v>
       </c>
       <c r="D7">
-        <v>33189.199999999997</v>
+        <v>32621.9</v>
       </c>
       <c r="E7" s="45">
         <v>4</v>
@@ -5035,10 +5035,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>18776.7</v>
+        <v>18808.2</v>
       </c>
       <c r="D8">
-        <v>37553.300000000003</v>
+        <v>37521.699999999997</v>
       </c>
       <c r="E8" s="45">
         <v>5</v>
@@ -5068,10 +5068,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>20142.400000000001</v>
+        <v>21544.9</v>
       </c>
       <c r="D9">
-        <v>40284.800000000003</v>
+        <v>38882.300000000003</v>
       </c>
       <c r="E9" s="45">
         <v>6</v>
@@ -5101,10 +5101,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>20846.900000000001</v>
+        <v>22245.1</v>
       </c>
       <c r="D10">
-        <v>41693.9</v>
+        <v>40295.699999999997</v>
       </c>
       <c r="E10" s="45">
         <v>7</v>
@@ -5134,10 +5134,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>21167.8</v>
+        <v>20230.8</v>
       </c>
       <c r="D11">
-        <v>42335.7</v>
+        <v>43272.7</v>
       </c>
       <c r="E11" s="45">
         <v>8</v>
@@ -5167,10 +5167,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>20634.900000000001</v>
+        <v>21542.799999999999</v>
       </c>
       <c r="D12">
-        <v>41269.699999999997</v>
+        <v>40361.800000000003</v>
       </c>
       <c r="E12" s="45">
         <v>9</v>
@@ -5200,10 +5200,10 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>20019.5</v>
+        <v>19811.900000000001</v>
       </c>
       <c r="D13">
-        <v>40039</v>
+        <v>40246.699999999997</v>
       </c>
       <c r="E13" s="45">
         <v>10</v>
@@ -5233,10 +5233,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>19793.400000000001</v>
+        <v>18444.900000000001</v>
       </c>
       <c r="D14">
-        <v>39586.699999999997</v>
+        <v>40935.199999999997</v>
       </c>
       <c r="E14" s="45">
         <v>11</v>
@@ -5266,10 +5266,10 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>20247.5</v>
+        <v>19799.5</v>
       </c>
       <c r="D15">
-        <v>40495</v>
+        <v>40942.9</v>
       </c>
       <c r="E15" s="45">
         <v>12</v>
@@ -5299,10 +5299,10 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>20080.900000000001</v>
+        <v>19702.599999999999</v>
       </c>
       <c r="D16">
-        <v>40161.800000000003</v>
+        <v>40540.199999999997</v>
       </c>
       <c r="E16" s="45">
         <v>13</v>
@@ -5332,10 +5332,10 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>18874.3</v>
+        <v>19641.099999999999</v>
       </c>
       <c r="D17">
-        <v>37748.6</v>
+        <v>36981.800000000003</v>
       </c>
       <c r="E17" s="45">
         <v>14</v>
@@ -5365,10 +5365,10 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>17420.900000000001</v>
+        <v>16586.3</v>
       </c>
       <c r="D18">
-        <v>34841.800000000003</v>
+        <v>35676.300000000003</v>
       </c>
       <c r="E18" s="45">
         <v>15</v>
@@ -5398,10 +5398,10 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>15876.5</v>
+        <v>15000.4</v>
       </c>
       <c r="D19">
-        <v>31753.1</v>
+        <v>32629.200000000001</v>
       </c>
       <c r="E19" s="45">
         <v>16</v>

--- a/Two node models/in.xlsx
+++ b/Two node models/in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CB3299-83C6-4A6D-9FCC-4F7FBCE6BA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D507447-C6B4-43BA-ADF7-FC18EA37A89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1328,45 +1328,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$F$4:$F$15</c:f>
+              <c:f>timeseries!$F$4:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.43</c:v>
+                  <c:v>0.54499999999999904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.34499999999999997</c:v>
+                  <c:v>0.28499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.23499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.215</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18</c:v>
+                  <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.15</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11499999999999901</c:v>
+                  <c:v>0.16999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.08</c:v>
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.255</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1409,45 +1418,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$G$4:$G$15</c:f>
+              <c:f>timeseries!$G$4:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.5000000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.40500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.38</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.21</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.08</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.01</c:v>
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,45 +1508,54 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$H$4:$H$15</c:f>
+              <c:f>timeseries!$H$4:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.315</c:v>
+                  <c:v>0.46499999999999903</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28000000000000003</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.22</c:v>
+                  <c:v>0.16499999999999901</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.14000000000000001</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>0.05</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>7.4999999999999997E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.14499999999999999</c:v>
-                </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.16</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13500000000000001</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11</c:v>
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33999999999999903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,10 +1598,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$I$4:$I$15</c:f>
+              <c:f>timeseries!$I$4:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1582,34 +1609,43 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.47</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.47</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.32500000000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.15</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
+                <c:pt idx="14">
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1955,49 +1991,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>14379.6</c:v>
+                  <c:v>16298.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13789.9</c:v>
+                  <c:v>15186.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14153.9</c:v>
+                  <c:v>21328.264999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17161.900000000001</c:v>
+                  <c:v>22447.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18808.2</c:v>
+                  <c:v>22432.76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21544.9</c:v>
+                  <c:v>24780.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22245.1</c:v>
+                  <c:v>20955.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20230.8</c:v>
+                  <c:v>20171.55</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21542.799999999999</c:v>
+                  <c:v>17707.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19811.900000000001</c:v>
+                  <c:v>20102.16</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18444.900000000001</c:v>
+                  <c:v>25682.75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19799.5</c:v>
+                  <c:v>23438.240000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19702.599999999999</c:v>
+                  <c:v>20418.27</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19641.099999999999</c:v>
+                  <c:v>21009.119999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16586.3</c:v>
+                  <c:v>18851.23</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>15000.4</c:v>
@@ -2101,49 +2137,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>30394.6</c:v>
+                  <c:v>35445.119999999901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>29973.200000000001</c:v>
+                  <c:v>41059.58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30983.9</c:v>
+                  <c:v>50997.735000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32621.9</c:v>
+                  <c:v>52377.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37521.699999999997</c:v>
+                  <c:v>48954.239999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38882.300000000003</c:v>
+                  <c:v>48104.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40295.699999999997</c:v>
+                  <c:v>45755.88</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43272.7</c:v>
+                  <c:v>37461.449999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40361.800000000003</c:v>
+                  <c:v>30124.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40246.699999999997</c:v>
+                  <c:v>39021.839999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40935.199999999997</c:v>
+                  <c:v>41926.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40942.9</c:v>
+                  <c:v>45497.7599999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40540.199999999997</c:v>
+                  <c:v>45400.729999999901</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36981.800000000003</c:v>
+                  <c:v>42654.879999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35676.300000000003</c:v>
+                  <c:v>40958.769999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>32629.200000000001</c:v>
@@ -4833,8 +4869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44:Q44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4907,22 +4943,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>14379.6</v>
+        <v>16298.88</v>
       </c>
       <c r="D4">
-        <v>30394.6</v>
+        <v>35445.119999999901</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.43</v>
+        <v>0.54499999999999904</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.315</v>
+        <v>0.46499999999999903</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4936,22 +4972,22 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>13789.9</v>
+        <v>15186.42</v>
       </c>
       <c r="D5">
-        <v>29973.200000000001</v>
+        <v>41059.58</v>
       </c>
       <c r="E5" s="45">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="H5">
-        <v>0.28000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -4969,25 +5005,25 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>14153.9</v>
+        <v>21328.264999999999</v>
       </c>
       <c r="D6">
-        <v>30983.9</v>
+        <v>50997.735000000001</v>
       </c>
       <c r="E6" s="45">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>0.34499999999999997</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.185</v>
       </c>
       <c r="H6">
-        <v>0.22</v>
+        <v>0.16499999999999901</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="V6" s="59"/>
       <c r="W6" s="60"/>
@@ -5002,25 +5038,25 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>17161.900000000001</v>
+        <v>22447.5</v>
       </c>
       <c r="D7">
-        <v>32621.9</v>
+        <v>52377.5</v>
       </c>
       <c r="E7" s="45">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>0.3</v>
+        <v>0.22</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="H7">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="I7">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="V7" s="59"/>
       <c r="W7" s="60"/>
@@ -5035,10 +5071,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>18808.2</v>
+        <v>22432.76</v>
       </c>
       <c r="D8">
-        <v>37521.699999999997</v>
+        <v>48954.239999999998</v>
       </c>
       <c r="E8" s="45">
         <v>5</v>
@@ -5047,13 +5083,13 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="G8">
-        <v>6.5000000000000002E-2</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H8">
-        <v>0.09</v>
+        <v>0.11499999999999901</v>
       </c>
       <c r="I8">
-        <v>0.13500000000000001</v>
+        <v>0.16499999999999901</v>
       </c>
       <c r="V8" s="59"/>
       <c r="W8" s="60"/>
@@ -5068,25 +5104,25 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>21544.9</v>
+        <v>24780.9</v>
       </c>
       <c r="D9">
-        <v>38882.300000000003</v>
+        <v>48104.1</v>
       </c>
       <c r="E9" s="45">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G9">
-        <v>0.27</v>
+        <v>0.09</v>
       </c>
       <c r="H9">
-        <v>0.05</v>
+        <v>0.17</v>
       </c>
       <c r="I9">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="V9" s="59"/>
       <c r="W9" s="60"/>
@@ -5101,25 +5137,25 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>22245.1</v>
+        <v>20955.12</v>
       </c>
       <c r="D10">
-        <v>40295.699999999997</v>
+        <v>45755.88</v>
       </c>
       <c r="E10" s="45">
         <v>7</v>
       </c>
       <c r="F10">
-        <v>0.215</v>
+        <v>0.13</v>
       </c>
       <c r="G10">
-        <v>0.40500000000000003</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>7.4999999999999997E-2</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I10">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="V10" s="59"/>
       <c r="W10" s="60"/>
@@ -5134,25 +5170,25 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>20230.8</v>
+        <v>20171.55</v>
       </c>
       <c r="D11">
-        <v>43272.7</v>
+        <v>37461.449999999997</v>
       </c>
       <c r="E11" s="45">
         <v>8</v>
       </c>
       <c r="F11">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="G11">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I11">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="V11" s="59"/>
       <c r="W11" s="60"/>
@@ -5167,25 +5203,25 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>21542.799999999999</v>
+        <v>17707.400000000001</v>
       </c>
       <c r="D12">
-        <v>40361.800000000003</v>
+        <v>30124.1</v>
       </c>
       <c r="E12" s="45">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>0.18</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="G12">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.14499999999999999</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I12">
-        <v>0.32500000000000001</v>
+        <v>0</v>
       </c>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
@@ -5200,25 +5236,25 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>19811.900000000001</v>
+        <v>20102.16</v>
       </c>
       <c r="D13">
-        <v>40246.699999999997</v>
+        <v>39021.839999999997</v>
       </c>
       <c r="E13" s="45">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="G13">
-        <v>0.21</v>
+        <v>0.03</v>
       </c>
       <c r="H13">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="I13">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="V13" s="59"/>
       <c r="W13" s="60"/>
@@ -5233,25 +5269,25 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>18444.900000000001</v>
+        <v>25682.75</v>
       </c>
       <c r="D14">
-        <v>40935.199999999997</v>
+        <v>41926.25</v>
       </c>
       <c r="E14" s="45">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>0.11499999999999901</v>
+        <v>0.16999999999999901</v>
       </c>
       <c r="G14">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="H14">
-        <v>0.13500000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="I14">
-        <v>0.06</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
@@ -5266,25 +5302,25 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>19799.5</v>
+        <v>23438.240000000002</v>
       </c>
       <c r="D15">
-        <v>40942.9</v>
+        <v>45497.7599999999</v>
       </c>
       <c r="E15" s="45">
         <v>12</v>
       </c>
       <c r="F15">
-        <v>0.08</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G15">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="H15">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I15">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
@@ -5299,25 +5335,25 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>19702.599999999999</v>
+        <v>20418.27</v>
       </c>
       <c r="D16">
-        <v>40540.199999999997</v>
+        <v>45400.729999999901</v>
       </c>
       <c r="E16" s="45">
         <v>13</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="H16">
-        <v>9.5000000000000001E-2</v>
+        <v>0.33999999999999903</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="V16" s="59"/>
       <c r="W16" s="60"/>
@@ -5332,25 +5368,25 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>19641.099999999999</v>
+        <v>21009.119999999999</v>
       </c>
       <c r="D17">
-        <v>36981.800000000003</v>
+        <v>42654.879999999997</v>
       </c>
       <c r="E17" s="45">
         <v>14</v>
       </c>
       <c r="F17">
-        <v>0.09</v>
+        <v>0.36</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="H17">
-        <v>0.13</v>
+        <v>0.32</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="V17" s="59"/>
       <c r="W17" s="60"/>
@@ -5365,25 +5401,25 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>16586.3</v>
+        <v>18851.23</v>
       </c>
       <c r="D18">
-        <v>35676.300000000003</v>
+        <v>40958.769999999997</v>
       </c>
       <c r="E18" s="45">
         <v>15</v>
       </c>
       <c r="F18">
-        <v>7.4999999999999997E-2</v>
+        <v>0.255</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.14499999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="V18" s="59"/>
       <c r="W18" s="60"/>
@@ -5523,11 +5559,11 @@
       </c>
       <c r="M35" s="47">
         <f>N43</f>
-        <v>2087.7999999999997</v>
+        <v>2195.8399999999988</v>
       </c>
       <c r="N35" s="47">
         <f>P43</f>
-        <v>1350.4999999999998</v>
+        <v>1708.1999999999975</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.35">
@@ -5538,11 +5574,11 @@
       </c>
       <c r="M36" s="47">
         <f>O43</f>
-        <v>1357.8</v>
+        <v>986.96000000000015</v>
       </c>
       <c r="N36" s="47">
         <f>Q43</f>
-        <v>1481.8999999999999</v>
+        <v>1074.5599999999995</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.35">
@@ -5601,19 +5637,19 @@
       </c>
       <c r="N43" s="51">
         <f>(8760*N44)</f>
-        <v>2087.7999999999997</v>
+        <v>2195.8399999999988</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
-        <v>1357.8</v>
+        <v>986.96000000000015</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="0"/>
-        <v>1350.4999999999998</v>
+        <v>1708.1999999999975</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="0"/>
-        <v>1481.8999999999999</v>
+        <v>1074.5599999999995</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.35">
@@ -5623,20 +5659,20 @@
         <v>39</v>
       </c>
       <c r="N44" s="52">
-        <f>AVERAGE(F4:F15)</f>
-        <v>0.23833333333333329</v>
+        <f>AVERAGE(F4:F18)</f>
+        <v>0.25066666666666654</v>
       </c>
       <c r="O44" s="52">
-        <f t="shared" ref="O44:Q44" si="1">AVERAGE(G4:G15)</f>
-        <v>0.155</v>
+        <f t="shared" ref="O44:Q44" si="1">AVERAGE(G4:G18)</f>
+        <v>0.11266666666666668</v>
       </c>
       <c r="P44" s="52">
         <f t="shared" si="1"/>
-        <v>0.15416666666666665</v>
+        <v>0.19499999999999973</v>
       </c>
       <c r="Q44" s="52">
         <f t="shared" si="1"/>
-        <v>0.16916666666666666</v>
+        <v>0.1226666666666666</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.35">

--- a/Two node models/in.xlsx
+++ b/Two node models/in.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D507447-C6B4-43BA-ADF7-FC18EA37A89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C27B1940-BF2D-4035-8BD8-4D4BF60DA09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
     <sheet name="timeseries" sheetId="6" r:id="rId2"/>
-    <sheet name="Wind shift" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
   <si>
     <t>Availability</t>
   </si>
@@ -182,30 +181,6 @@
     <t>South</t>
   </si>
   <si>
-    <t>Ratio</t>
-  </si>
-  <si>
-    <t>Anteil north</t>
-  </si>
-  <si>
-    <t>Anteil south</t>
-  </si>
-  <si>
-    <t>Total north</t>
-  </si>
-  <si>
-    <t>Total south</t>
-  </si>
-  <si>
-    <t>Total all</t>
-  </si>
-  <si>
-    <t>Factor north</t>
-  </si>
-  <si>
-    <t>Factor south</t>
-  </si>
-  <si>
     <t>0:00-1:30</t>
   </si>
   <si>
@@ -246,12 +221,6 @@
   </si>
   <si>
     <t>19:30-21:00</t>
-  </si>
-  <si>
-    <t>21:00-22:30</t>
-  </si>
-  <si>
-    <t>22:30-24:00</t>
   </si>
   <si>
     <t>Soll</t>
@@ -598,7 +567,7 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -751,7 +720,6 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1293,7 +1261,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.0729593579234977E-2"/>
+          <c:y val="0.16257516257757856"/>
+          <c:w val="0.88437443368740942"/>
+          <c:h val="0.63547314717472925"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1328,54 +1306,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$F$4:$F$18</c:f>
+              <c:f>timeseries!$F$4:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.54499999999999904</c:v>
+                  <c:v>0.48499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4</c:v>
+                  <c:v>0.30499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.28499999999999998</c:v>
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.23499999999999999</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>0.125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.06</c:v>
+                  <c:v>0.105</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.4999999999999997E-2</c:v>
+                  <c:v>0.16999999999999901</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.13</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.16999999999999901</c:v>
+                  <c:v>0.26500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.27500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.40500000000000003</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.36</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.255</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1418,53 +1393,50 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$G$4:$G$18</c:f>
+              <c:f>timeseries!$G$4:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.185</c:v>
+                  <c:v>0.315</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.28999999999999998</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.09</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.20499999999999999</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1508,54 +1480,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$H$4:$H$18</c:f>
+              <c:f>timeseries!$H$4:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.46499999999999903</c:v>
+                  <c:v>0.32999999999999902</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16499999999999901</c:v>
+                  <c:v>0.13500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.11499999999999901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.4999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.30499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0.12</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11499999999999901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.33999999999999903</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.155</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1598,54 +1567,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>timeseries!$I$4:$I$18</c:f>
+              <c:f>timeseries!$I$4:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16499999999999901</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4999999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.28499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1932,7 +1898,7 @@
             <c:strRef>
               <c:f>timeseries!$A$4:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0:00-1:30</c:v>
                 </c:pt>
@@ -1974,12 +1940,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19:30-21:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21:00-22:30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22:30-24:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1994,49 +1954,43 @@
                   <c:v>16298.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15186.42</c:v>
+                  <c:v>18204.96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21328.264999999999</c:v>
+                  <c:v>21940.264999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22447.5</c:v>
+                  <c:v>22432.76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22432.76</c:v>
+                  <c:v>24780.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24780.9</c:v>
+                  <c:v>20955.12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20955.12</c:v>
+                  <c:v>18520.035</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20171.55</c:v>
+                  <c:v>19324.22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17707.400000000001</c:v>
+                  <c:v>25682.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20102.16</c:v>
+                  <c:v>23438.240000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25682.75</c:v>
+                  <c:v>20418.27</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23438.240000000002</c:v>
+                  <c:v>20428.72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20418.27</c:v>
+                  <c:v>16306.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21009.119999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>18851.23</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15000.4</c:v>
+                  <c:v>15532.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2078,7 +2032,7 @@
             <c:strRef>
               <c:f>timeseries!$A$4:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0:00-1:30</c:v>
                 </c:pt>
@@ -2120,12 +2074,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>19:30-21:00</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21:00-22:30</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22:30-24:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2140,49 +2088,43 @@
                   <c:v>35445.119999999901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41059.58</c:v>
+                  <c:v>45290.54</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50997.735000000001</c:v>
+                  <c:v>52425.735000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52377.5</c:v>
+                  <c:v>48954.239999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48954.239999999998</c:v>
+                  <c:v>48104.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48104.1</c:v>
+                  <c:v>45755.88</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45755.88</c:v>
+                  <c:v>33724.964999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37461.449999999997</c:v>
+                  <c:v>34640.78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30124.1</c:v>
+                  <c:v>41926.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>39021.839999999997</c:v>
+                  <c:v>45497.7599999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41926.25</c:v>
+                  <c:v>45400.729999999901</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45497.7599999999</c:v>
+                  <c:v>42416.28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45400.729999999901</c:v>
+                  <c:v>37088.18</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42654.879999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>40958.769999999997</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>32629.200000000001</c:v>
+                  <c:v>36243.199999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4556,10 +4498,10 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="26"/>
-      <c r="O3" s="65" t="s">
+      <c r="O3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="66"/>
+      <c r="P3" s="65"/>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
@@ -4686,7 +4628,7 @@
       <c r="N7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="63" t="s">
+      <c r="O7" s="62" t="s">
         <v>19</v>
       </c>
       <c r="P7" s="23" t="e">
@@ -4709,7 +4651,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="28"/>
-      <c r="O8" s="64"/>
+      <c r="O8" s="63"/>
       <c r="P8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="25.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4869,29 +4811,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44:Q44"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="8.7265625" style="45"/>
-    <col min="5" max="5" width="4.81640625" style="45" customWidth="1"/>
+    <col min="5" max="5" width="2.90625" style="45" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="67"/>
+      <c r="D1" s="66"/>
       <c r="E1" s="46"/>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C2" s="54" t="s">
@@ -4937,7 +4879,7 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="45" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B4" s="45">
         <v>1</v>
@@ -4952,13 +4894,13 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.54499999999999904</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.46499999999999903</v>
+        <v>0.32999999999999902</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4966,31 +4908,31 @@
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="45" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B5" s="45">
         <v>2</v>
       </c>
       <c r="C5">
-        <v>15186.42</v>
+        <v>18204.96</v>
       </c>
       <c r="D5">
-        <v>41059.58</v>
+        <v>45290.54</v>
       </c>
       <c r="E5" s="45">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.4</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="G5">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="H5">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V5" s="56"/>
       <c r="W5" s="57"/>
@@ -4999,31 +4941,31 @@
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="45" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B6" s="45">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>21328.264999999999</v>
+        <v>21940.264999999999</v>
       </c>
       <c r="D6">
-        <v>50997.735000000001</v>
+        <v>52425.735000000001</v>
       </c>
       <c r="E6" s="45">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>0.28499999999999998</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="G6">
-        <v>0.185</v>
+        <v>0.315</v>
       </c>
       <c r="H6">
-        <v>0.16499999999999901</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="I6">
-        <v>7.4999999999999997E-2</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="V6" s="59"/>
       <c r="W6" s="60"/>
@@ -5032,16 +4974,16 @@
     </row>
     <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B7" s="45">
         <v>4</v>
       </c>
       <c r="C7">
-        <v>22447.5</v>
+        <v>22432.76</v>
       </c>
       <c r="D7">
-        <v>52377.5</v>
+        <v>48954.239999999998</v>
       </c>
       <c r="E7" s="45">
         <v>4</v>
@@ -5053,10 +4995,10 @@
         <v>0.31</v>
       </c>
       <c r="H7">
-        <v>0.12</v>
+        <v>0.11499999999999901</v>
       </c>
       <c r="I7">
-        <v>0.23</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="V7" s="59"/>
       <c r="W7" s="60"/>
@@ -5065,31 +5007,31 @@
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="45" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B8" s="45">
         <v>5</v>
       </c>
       <c r="C8">
-        <v>22432.76</v>
+        <v>24780.9</v>
       </c>
       <c r="D8">
-        <v>48954.239999999998</v>
+        <v>48104.1</v>
       </c>
       <c r="E8" s="45">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>0.23499999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="G8">
-        <v>0.28999999999999998</v>
+        <v>0.09</v>
       </c>
       <c r="H8">
-        <v>0.11499999999999901</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I8">
-        <v>0.16499999999999901</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="V8" s="59"/>
       <c r="W8" s="60"/>
@@ -5098,31 +5040,31 @@
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="45" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B9" s="45">
         <v>6</v>
       </c>
       <c r="C9">
-        <v>24780.9</v>
+        <v>20955.12</v>
       </c>
       <c r="D9">
-        <v>48104.1</v>
+        <v>45755.88</v>
       </c>
       <c r="E9" s="45">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="G9">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I9">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="V9" s="59"/>
       <c r="W9" s="60"/>
@@ -5131,28 +5073,28 @@
     </row>
     <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="45" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B10" s="45">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>20955.12</v>
+        <v>18520.035</v>
       </c>
       <c r="D10">
-        <v>45755.88</v>
+        <v>33724.964999999997</v>
       </c>
       <c r="E10" s="45">
         <v>7</v>
       </c>
       <c r="F10">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.14000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -5164,31 +5106,31 @@
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="45" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B11" s="45">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>20171.55</v>
+        <v>19324.22</v>
       </c>
       <c r="D11">
-        <v>37461.449999999997</v>
+        <v>34640.78</v>
       </c>
       <c r="E11" s="45">
         <v>8</v>
       </c>
       <c r="F11">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H11">
-        <v>0.05</v>
+        <v>8.4999999999999895E-2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V11" s="59"/>
       <c r="W11" s="60"/>
@@ -5197,31 +5139,31 @@
     </row>
     <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="45" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B12" s="45">
         <v>9</v>
       </c>
       <c r="C12">
-        <v>17707.400000000001</v>
+        <v>25682.75</v>
       </c>
       <c r="D12">
-        <v>30124.1</v>
+        <v>41926.25</v>
       </c>
       <c r="E12" s="45">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>7.4999999999999997E-2</v>
+        <v>0.16999999999999901</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="H12">
-        <v>7.4999999999999997E-2</v>
+        <v>0.16</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
@@ -5230,31 +5172,31 @@
     </row>
     <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B13" s="45">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>20102.16</v>
+        <v>23438.240000000002</v>
       </c>
       <c r="D13">
-        <v>39021.839999999997</v>
+        <v>45497.7599999999</v>
       </c>
       <c r="E13" s="45">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>0.13</v>
+        <v>0.22</v>
       </c>
       <c r="G13">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="H13">
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="I13">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="V13" s="59"/>
       <c r="W13" s="60"/>
@@ -5263,31 +5205,31 @@
     </row>
     <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B14" s="45">
         <v>11</v>
       </c>
       <c r="C14">
-        <v>25682.75</v>
+        <v>20418.27</v>
       </c>
       <c r="D14">
-        <v>41926.25</v>
+        <v>45400.729999999901</v>
       </c>
       <c r="E14" s="45">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>0.16999999999999901</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="G14">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="H14">
-        <v>0.16</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="I14">
-        <v>0.28499999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
@@ -5296,31 +5238,31 @@
     </row>
     <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B15" s="45">
         <v>12</v>
       </c>
       <c r="C15">
-        <v>23438.240000000002</v>
+        <v>20428.72</v>
       </c>
       <c r="D15">
-        <v>45497.7599999999</v>
+        <v>42416.28</v>
       </c>
       <c r="E15" s="45">
         <v>12</v>
       </c>
       <c r="F15">
-        <v>0.28999999999999998</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="G15">
-        <v>0.32</v>
+        <v>0.02</v>
       </c>
       <c r="H15">
-        <v>0.21</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="I15">
-        <v>0.45</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
@@ -5329,31 +5271,31 @@
     </row>
     <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B16" s="45">
         <v>13</v>
       </c>
       <c r="C16">
-        <v>20418.27</v>
+        <v>16306.32</v>
       </c>
       <c r="D16">
-        <v>45400.729999999901</v>
+        <v>37088.18</v>
       </c>
       <c r="E16" s="45">
         <v>13</v>
       </c>
       <c r="F16">
-        <v>0.40500000000000003</v>
+        <v>0.16</v>
       </c>
       <c r="G16">
-        <v>0.20499999999999999</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>0.33999999999999903</v>
+        <v>0.12</v>
       </c>
       <c r="I16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="V16" s="59"/>
       <c r="W16" s="60"/>
@@ -5362,31 +5304,31 @@
     </row>
     <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B17" s="45">
         <v>14</v>
       </c>
       <c r="C17">
-        <v>21009.119999999999</v>
+        <v>15532.8</v>
       </c>
       <c r="D17">
-        <v>42654.879999999997</v>
+        <v>36243.199999999997</v>
       </c>
       <c r="E17" s="45">
         <v>14</v>
       </c>
       <c r="F17">
-        <v>0.36</v>
+        <v>0.21</v>
       </c>
       <c r="G17">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="I17">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="V17" s="59"/>
       <c r="W17" s="60"/>
@@ -5394,66 +5336,16 @@
       <c r="Y17" s="60"/>
     </row>
     <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="45">
-        <v>15</v>
-      </c>
-      <c r="C18">
-        <v>18851.23</v>
-      </c>
-      <c r="D18">
-        <v>40958.769999999997</v>
-      </c>
-      <c r="E18" s="45">
-        <v>15</v>
-      </c>
-      <c r="F18">
-        <v>0.255</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0.155</v>
-      </c>
-      <c r="I18">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
       <c r="V18" s="59"/>
       <c r="W18" s="60"/>
       <c r="X18" s="61"/>
       <c r="Y18" s="60"/>
     </row>
     <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="45">
-        <v>16</v>
-      </c>
-      <c r="C19">
-        <v>15000.4</v>
-      </c>
-      <c r="D19">
-        <v>32629.200000000001</v>
-      </c>
-      <c r="E19" s="45">
-        <v>16</v>
-      </c>
-      <c r="F19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0.15</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="V19" s="59"/>
       <c r="W19" s="60"/>
       <c r="X19" s="61"/>
@@ -5559,11 +5451,11 @@
       </c>
       <c r="M35" s="47">
         <f>N43</f>
-        <v>2195.8399999999988</v>
+        <v>1861.4999999999995</v>
       </c>
       <c r="N35" s="47">
         <f>P43</f>
-        <v>1708.1999999999975</v>
+        <v>1548.6428571428557</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.35">
@@ -5574,11 +5466,11 @@
       </c>
       <c r="M36" s="47">
         <f>O43</f>
-        <v>986.96000000000015</v>
+        <v>976.11428571428576</v>
       </c>
       <c r="N36" s="47">
         <f>Q43</f>
-        <v>1074.5599999999995</v>
+        <v>1107.5142857142857</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.35">
@@ -5637,19 +5529,19 @@
       </c>
       <c r="N43" s="51">
         <f>(8760*N44)</f>
-        <v>2195.8399999999988</v>
+        <v>1861.4999999999995</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
-        <v>986.96000000000015</v>
+        <v>976.11428571428576</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="0"/>
-        <v>1708.1999999999975</v>
+        <v>1548.6428571428557</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="0"/>
-        <v>1074.5599999999995</v>
+        <v>1107.5142857142857</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.35">
@@ -5659,27 +5551,27 @@
         <v>39</v>
       </c>
       <c r="N44" s="52">
-        <f>AVERAGE(F4:F18)</f>
-        <v>0.25066666666666654</v>
+        <f>AVERAGE(F4:F26)</f>
+        <v>0.21249999999999994</v>
       </c>
       <c r="O44" s="52">
-        <f t="shared" ref="O44:Q44" si="1">AVERAGE(G4:G18)</f>
-        <v>0.11266666666666668</v>
+        <f>AVERAGE(G4:G26)</f>
+        <v>0.11142857142857143</v>
       </c>
       <c r="P44" s="52">
-        <f t="shared" si="1"/>
-        <v>0.19499999999999973</v>
+        <f>AVERAGE(H4:H26)</f>
+        <v>0.17678571428571413</v>
       </c>
       <c r="Q44" s="52">
-        <f t="shared" si="1"/>
-        <v>0.1226666666666666</v>
+        <f>AVERAGE(I4:I26)</f>
+        <v>0.12642857142857142</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
       <c r="L45" s="45" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="N45" s="45">
         <v>21</v>
@@ -6071,230 +5963,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AFA3B40-044F-436C-80C0-806BB9FE0DB5}">
-  <dimension ref="A1:C37"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" s="45">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="45">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" s="45">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" s="45">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="45">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="45">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" s="45">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="45">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="45">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" s="45">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" s="45">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14">
-        <f>SUM(B2:B13)</f>
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B16" s="45">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B17" s="45">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B18" s="45">
-        <v>0.33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B19" s="45">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B20" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B21" s="45">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B22" s="45">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B23" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B24" s="45">
-        <v>0.17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B25" s="45">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B26" s="45">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B27" s="45">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28">
-        <f>SUM(B16:B27)</f>
-        <v>2.4399999999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>54</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32">
-        <f>B14+B28</f>
-        <v>5.7099999999999991</v>
-      </c>
-      <c r="C32">
-        <f>B32</f>
-        <v>5.7099999999999991</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33">
-        <f>B14/B28</f>
-        <v>1.3401639344262297</v>
-      </c>
-      <c r="C33" s="62">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35">
-        <f>B14/B32</f>
-        <v>0.57267950963222425</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36">
-        <f>B28/B32</f>
-        <v>0.42732049036777581</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B37">
-        <f>(B33+1)/B32</f>
-        <v>0.40983606557377061</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Two node models/in.xlsx
+++ b/Two node models/in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C27B1940-BF2D-4035-8BD8-4D4BF60DA09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4323277F-D80A-49B7-9FC1-21219A7969C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>Availability</t>
   </si>
@@ -215,12 +215,6 @@
   </si>
   <si>
     <t>16:30-18:00</t>
-  </si>
-  <si>
-    <t>18:00-19:30</t>
-  </si>
-  <si>
-    <t>19:30-21:00</t>
   </si>
   <si>
     <t>Soll</t>
@@ -1311,46 +1305,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.48499999999999999</c:v>
+                  <c:v>0.43333333333333302</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30499999999999999</c:v>
+                  <c:v>0.245</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16999999999999901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.22</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.105</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16999999999999901</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.26500000000000001</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.27500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21</c:v>
+                  <c:v>0.17499999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1401,42 +1389,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.06</c:v>
+                  <c:v>0.19500000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.315</c:v>
+                  <c:v>0.35499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.31</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.09</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.315</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.105</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.4999999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.24</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1485,46 +1467,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.32999999999999902</c:v>
+                  <c:v>0.30666666666666598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22</c:v>
+                  <c:v>0.16499999999999901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13500000000000001</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11499999999999901</c:v>
+                  <c:v>0.14499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.4999999999999895E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.245</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.4999999999999895E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.21</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.29499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.30499999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1575,42 +1551,36 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>8.4999999999999895E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23499999999999999</c:v>
+                  <c:v>0.30499999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>9.5000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.44500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.41</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.4999999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1898,7 +1868,7 @@
             <c:strRef>
               <c:f>timeseries!$A$4:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0:00-1:30</c:v>
                 </c:pt>
@@ -1934,12 +1904,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16:30-18:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18:00-19:30</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19:30-21:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1951,46 +1915,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>16298.88</c:v>
+                  <c:v>15928.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18204.96</c:v>
+                  <c:v>21328.264999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21940.264999999999</c:v>
+                  <c:v>21434.51</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22432.76</c:v>
+                  <c:v>24612.45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24780.9</c:v>
+                  <c:v>20955.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20955.12</c:v>
+                  <c:v>18520.035</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18520.035</c:v>
+                  <c:v>19324.22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>19324.22</c:v>
+                  <c:v>25682.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25682.75</c:v>
+                  <c:v>22480.240000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23438.240000000002</c:v>
+                  <c:v>20161.71</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20418.27</c:v>
+                  <c:v>18851.23</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20428.72</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16306.32</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15532.8</c:v>
+                  <c:v>15145.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2032,7 +1990,7 @@
             <c:strRef>
               <c:f>timeseries!$A$4:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0:00-1:30</c:v>
                 </c:pt>
@@ -2068,12 +2026,6 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>16:30-18:00</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>18:00-19:30</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>19:30-21:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2085,46 +2037,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>35445.119999999901</c:v>
+                  <c:v>37316.606666666601</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45290.54</c:v>
+                  <c:v>50997.735000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52425.735000000001</c:v>
+                  <c:v>52444.99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48954.239999999998</c:v>
+                  <c:v>46750.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48104.1</c:v>
+                  <c:v>45755.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45755.88</c:v>
+                  <c:v>33724.964999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33724.964999999997</c:v>
+                  <c:v>34640.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34640.78</c:v>
+                  <c:v>41926.25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>41926.25</c:v>
+                  <c:v>45616.2599999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45497.7599999999</c:v>
+                  <c:v>43860.789999999899</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45400.729999999901</c:v>
+                  <c:v>40958.769999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42416.28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>37088.18</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>36243.199999999997</c:v>
+                  <c:v>35339.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4812,7 +4758,7 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I17"/>
+      <selection activeCell="F4" sqref="F4:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4885,22 +4831,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>16298.88</v>
+        <v>15928.06</v>
       </c>
       <c r="D4">
-        <v>35445.119999999901</v>
+        <v>37316.606666666601</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.48499999999999999</v>
+        <v>0.43333333333333302</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.32999999999999902</v>
+        <v>0.30666666666666598</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4914,25 +4860,25 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>18204.96</v>
+        <v>21328.264999999999</v>
       </c>
       <c r="D5">
-        <v>45290.54</v>
+        <v>50997.735000000001</v>
       </c>
       <c r="E5" s="45">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.30499999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="G5">
-        <v>0.06</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="H5">
-        <v>0.22</v>
+        <v>0.16499999999999901</v>
       </c>
       <c r="I5">
-        <v>0.01</v>
+        <v>8.4999999999999895E-2</v>
       </c>
       <c r="V5" s="56"/>
       <c r="W5" s="57"/>
@@ -4947,10 +4893,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>21940.264999999999</v>
+        <v>21434.51</v>
       </c>
       <c r="D6">
-        <v>52425.735000000001</v>
+        <v>52444.99</v>
       </c>
       <c r="E6" s="45">
         <v>3</v>
@@ -4959,13 +4905,13 @@
         <v>0.19500000000000001</v>
       </c>
       <c r="G6">
-        <v>0.315</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="H6">
-        <v>0.13500000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I6">
-        <v>0.23499999999999999</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="V6" s="59"/>
       <c r="W6" s="60"/>
@@ -4980,25 +4926,25 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>22432.76</v>
+        <v>24612.45</v>
       </c>
       <c r="D7">
-        <v>48954.239999999998</v>
+        <v>46750.05</v>
       </c>
       <c r="E7" s="45">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>0.22</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="G7">
-        <v>0.31</v>
+        <v>0.18</v>
       </c>
       <c r="H7">
-        <v>0.11499999999999901</v>
+        <v>0.14499999999999999</v>
       </c>
       <c r="I7">
-        <v>0.20499999999999999</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="V7" s="59"/>
       <c r="W7" s="60"/>
@@ -5013,25 +4959,25 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>24780.9</v>
+        <v>20955.12</v>
       </c>
       <c r="D8">
-        <v>48104.1</v>
+        <v>45755.88</v>
       </c>
       <c r="E8" s="45">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>0.18</v>
+        <v>0.125</v>
       </c>
       <c r="G8">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I8">
-        <v>7.0000000000000007E-2</v>
+        <v>0</v>
       </c>
       <c r="V8" s="59"/>
       <c r="W8" s="60"/>
@@ -5046,22 +4992,22 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>20955.12</v>
+        <v>18520.035</v>
       </c>
       <c r="D9">
-        <v>45755.88</v>
+        <v>33724.964999999997</v>
       </c>
       <c r="E9" s="45">
         <v>6</v>
       </c>
       <c r="F9">
-        <v>0.125</v>
+        <v>0.06</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -5079,25 +5025,25 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>18520.035</v>
+        <v>19324.22</v>
       </c>
       <c r="D10">
-        <v>33724.964999999997</v>
+        <v>34640.78</v>
       </c>
       <c r="E10" s="45">
         <v>7</v>
       </c>
       <c r="F10">
-        <v>0.06</v>
+        <v>0.105</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H10">
-        <v>0.08</v>
+        <v>8.4999999999999895E-2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="V10" s="59"/>
       <c r="W10" s="60"/>
@@ -5112,25 +5058,25 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>19324.22</v>
+        <v>25682.75</v>
       </c>
       <c r="D11">
-        <v>34640.78</v>
+        <v>41926.25</v>
       </c>
       <c r="E11" s="45">
         <v>8</v>
       </c>
       <c r="F11">
-        <v>0.105</v>
+        <v>0.16999999999999901</v>
       </c>
       <c r="G11">
-        <v>1.4999999999999999E-2</v>
+        <v>0.19</v>
       </c>
       <c r="H11">
-        <v>8.4999999999999895E-2</v>
+        <v>0.16</v>
       </c>
       <c r="I11">
-        <v>0.02</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="V11" s="59"/>
       <c r="W11" s="60"/>
@@ -5145,25 +5091,25 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>25682.75</v>
+        <v>22480.240000000002</v>
       </c>
       <c r="D12">
-        <v>41926.25</v>
+        <v>45616.2599999999</v>
       </c>
       <c r="E12" s="45">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>0.16999999999999901</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="G12">
-        <v>0.19</v>
+        <v>0.315</v>
       </c>
       <c r="H12">
-        <v>0.16</v>
+        <v>0.245</v>
       </c>
       <c r="I12">
-        <v>0.29499999999999998</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
@@ -5178,25 +5124,25 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>23438.240000000002</v>
+        <v>20161.71</v>
       </c>
       <c r="D13">
-        <v>45497.7599999999</v>
+        <v>43860.789999999899</v>
       </c>
       <c r="E13" s="45">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>0.22</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="G13">
+        <v>0.105</v>
+      </c>
+      <c r="H13">
         <v>0.32</v>
       </c>
-      <c r="H13">
-        <v>0.21</v>
-      </c>
       <c r="I13">
-        <v>0.45</v>
+        <v>0.26500000000000001</v>
       </c>
       <c r="V13" s="59"/>
       <c r="W13" s="60"/>
@@ -5211,25 +5157,25 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>20418.27</v>
+        <v>18851.23</v>
       </c>
       <c r="D14">
-        <v>45400.729999999901</v>
+        <v>40958.769999999997</v>
       </c>
       <c r="E14" s="45">
         <v>11</v>
       </c>
       <c r="F14">
-        <v>0.26500000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="G14">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.29499999999999998</v>
+        <v>0.20499999999999999</v>
       </c>
       <c r="I14">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="V14" s="59"/>
       <c r="W14" s="60"/>
@@ -5244,25 +5190,25 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>20428.72</v>
+        <v>15145.65</v>
       </c>
       <c r="D15">
-        <v>42416.28</v>
+        <v>35339.85</v>
       </c>
       <c r="E15" s="45">
         <v>12</v>
       </c>
       <c r="F15">
-        <v>0.27500000000000002</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="G15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.30499999999999999</v>
+        <v>0.13</v>
       </c>
       <c r="I15">
-        <v>7.4999999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="V15" s="59"/>
       <c r="W15" s="60"/>
@@ -5270,72 +5216,30 @@
       <c r="Y15" s="60"/>
     </row>
     <row r="16" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="45">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>16306.32</v>
-      </c>
-      <c r="D16">
-        <v>37088.18</v>
-      </c>
-      <c r="E16" s="45">
-        <v>13</v>
-      </c>
-      <c r="F16">
-        <v>0.16</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0.12</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
       <c r="V16" s="59"/>
       <c r="W16" s="60"/>
       <c r="X16" s="61"/>
       <c r="Y16" s="60"/>
     </row>
-    <row r="17" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="45">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>15532.8</v>
-      </c>
-      <c r="D17">
-        <v>36243.199999999997</v>
-      </c>
-      <c r="E17" s="45">
-        <v>14</v>
-      </c>
-      <c r="F17">
-        <v>0.21</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0.15</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
+    <row r="17" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
       <c r="V17" s="59"/>
       <c r="W17" s="60"/>
       <c r="X17" s="61"/>
       <c r="Y17" s="60"/>
     </row>
-    <row r="18" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C18" s="47"/>
       <c r="D18" s="47"/>
       <c r="V18" s="59"/>
@@ -5343,7 +5247,7 @@
       <c r="X18" s="61"/>
       <c r="Y18" s="60"/>
     </row>
-    <row r="19" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C19" s="47"/>
       <c r="D19" s="47"/>
       <c r="V19" s="59"/>
@@ -5351,13 +5255,13 @@
       <c r="X19" s="61"/>
       <c r="Y19" s="60"/>
     </row>
-    <row r="20" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V20" s="59"/>
       <c r="W20" s="60"/>
       <c r="X20" s="61"/>
       <c r="Y20" s="60"/>
     </row>
-    <row r="21" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
       <c r="V21" s="59"/>
@@ -5365,19 +5269,19 @@
       <c r="X21" s="61"/>
       <c r="Y21" s="60"/>
     </row>
-    <row r="22" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V22" s="59"/>
       <c r="W22" s="60"/>
       <c r="X22" s="61"/>
       <c r="Y22" s="60"/>
     </row>
-    <row r="23" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V23" s="59"/>
       <c r="W23" s="60"/>
       <c r="X23" s="61"/>
       <c r="Y23" s="60"/>
     </row>
-    <row r="24" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
       <c r="V24" s="59"/>
@@ -5385,19 +5289,19 @@
       <c r="X24" s="61"/>
       <c r="Y24" s="60"/>
     </row>
-    <row r="25" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V25" s="59"/>
       <c r="W25" s="60"/>
       <c r="X25" s="61"/>
       <c r="Y25" s="60"/>
     </row>
-    <row r="26" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="V26" s="59"/>
       <c r="W26" s="60"/>
       <c r="X26" s="61"/>
       <c r="Y26" s="60"/>
     </row>
-    <row r="27" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
       <c r="V27" s="59"/>
@@ -5405,7 +5309,7 @@
       <c r="X27" s="61"/>
       <c r="Y27" s="60"/>
     </row>
-    <row r="28" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
       <c r="V28" s="59"/>
@@ -5413,19 +5317,19 @@
       <c r="X28" s="61"/>
       <c r="Y28" s="60"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
     </row>
@@ -5451,11 +5355,11 @@
       </c>
       <c r="M35" s="47">
         <f>N43</f>
-        <v>1861.4999999999995</v>
+        <v>1790.9333333333325</v>
       </c>
       <c r="N35" s="47">
         <f>P43</f>
-        <v>1548.6428571428557</v>
+        <v>1512.3166666666655</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.35">
@@ -5466,11 +5370,11 @@
       </c>
       <c r="M36" s="47">
         <f>O43</f>
-        <v>976.11428571428576</v>
+        <v>989.15</v>
       </c>
       <c r="N36" s="47">
         <f>Q43</f>
-        <v>1107.5142857142857</v>
+        <v>1102.3</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.35">
@@ -5529,19 +5433,19 @@
       </c>
       <c r="N43" s="51">
         <f>(8760*N44)</f>
-        <v>1861.4999999999995</v>
+        <v>1790.9333333333325</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
-        <v>976.11428571428576</v>
+        <v>989.15</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="0"/>
-        <v>1548.6428571428557</v>
+        <v>1512.3166666666655</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="0"/>
-        <v>1107.5142857142857</v>
+        <v>1102.3</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.35">
@@ -5552,26 +5456,26 @@
       </c>
       <c r="N44" s="52">
         <f>AVERAGE(F4:F26)</f>
-        <v>0.21249999999999994</v>
+        <v>0.20444444444444435</v>
       </c>
       <c r="O44" s="52">
         <f>AVERAGE(G4:G26)</f>
-        <v>0.11142857142857143</v>
+        <v>0.11291666666666667</v>
       </c>
       <c r="P44" s="52">
         <f>AVERAGE(H4:H26)</f>
-        <v>0.17678571428571413</v>
+        <v>0.17263888888888876</v>
       </c>
       <c r="Q44" s="52">
         <f>AVERAGE(I4:I26)</f>
-        <v>0.12642857142857142</v>
+        <v>0.12583333333333332</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
       <c r="L45" s="45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="N45" s="45">
         <v>21</v>

--- a/Two node models/in.xlsx
+++ b/Two node models/in.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4323277F-D80A-49B7-9FC1-21219A7969C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC29D8F3-A065-40AB-B77C-81CFBC5868AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1915,40 +1915,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>15928.06</c:v>
+                  <c:v>12728.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21328.264999999999</c:v>
+                  <c:v>14509.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21434.51</c:v>
+                  <c:v>15966.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24612.45</c:v>
+                  <c:v>22739.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20955.12</c:v>
+                  <c:v>19954.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18520.035</c:v>
+                  <c:v>21614.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19324.22</c:v>
+                  <c:v>18904.599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25682.75</c:v>
+                  <c:v>15283.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22480.240000000002</c:v>
+                  <c:v>24613.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20161.71</c:v>
+                  <c:v>19174.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>18851.23</c:v>
+                  <c:v>14419.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15145.65</c:v>
+                  <c:v>15409.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,40 +2037,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>37316.606666666601</c:v>
+                  <c:v>31989.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50997.735000000001</c:v>
+                  <c:v>41208.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52444.99</c:v>
+                  <c:v>46824</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46750.05</c:v>
+                  <c:v>37273.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45755.88</c:v>
+                  <c:v>39508.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33724.964999999997</c:v>
+                  <c:v>29103.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>34640.78</c:v>
+                  <c:v>25812.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41926.25</c:v>
+                  <c:v>40433.800000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45616.2599999999</c:v>
+                  <c:v>38176.699999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43860.789999999899</c:v>
+                  <c:v>40838.400000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40958.769999999997</c:v>
+                  <c:v>45043.199999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35339.85</c:v>
+                  <c:v>35308.400000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4758,7 +4758,7 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:I15"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4831,10 +4831,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15928.06</v>
+        <v>12728.1</v>
       </c>
       <c r="D4">
-        <v>37316.606666666601</v>
+        <v>31989.3</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
@@ -4860,10 +4860,10 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>21328.264999999999</v>
+        <v>14509.7</v>
       </c>
       <c r="D5">
-        <v>50997.735000000001</v>
+        <v>41208.1</v>
       </c>
       <c r="E5" s="45">
         <v>2</v>
@@ -4893,10 +4893,10 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>21434.51</v>
+        <v>15966.6</v>
       </c>
       <c r="D6">
-        <v>52444.99</v>
+        <v>46824</v>
       </c>
       <c r="E6" s="45">
         <v>3</v>
@@ -4926,10 +4926,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>24612.45</v>
+        <v>22739.5</v>
       </c>
       <c r="D7">
-        <v>46750.05</v>
+        <v>37273.199999999997</v>
       </c>
       <c r="E7" s="45">
         <v>4</v>
@@ -4959,10 +4959,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>20955.12</v>
+        <v>19954.2</v>
       </c>
       <c r="D8">
-        <v>45755.88</v>
+        <v>39508.5</v>
       </c>
       <c r="E8" s="45">
         <v>5</v>
@@ -4992,10 +4992,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>18520.035</v>
+        <v>21614.9</v>
       </c>
       <c r="D9">
-        <v>33724.964999999997</v>
+        <v>29103.4</v>
       </c>
       <c r="E9" s="45">
         <v>6</v>
@@ -5025,10 +5025,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>19324.22</v>
+        <v>18904.599999999999</v>
       </c>
       <c r="D10">
-        <v>34640.78</v>
+        <v>25812.799999999999</v>
       </c>
       <c r="E10" s="45">
         <v>7</v>
@@ -5058,10 +5058,10 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>25682.75</v>
+        <v>15283.9</v>
       </c>
       <c r="D11">
-        <v>41926.25</v>
+        <v>40433.800000000003</v>
       </c>
       <c r="E11" s="45">
         <v>8</v>
@@ -5091,10 +5091,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>22480.240000000002</v>
+        <v>24613.9</v>
       </c>
       <c r="D12">
-        <v>45616.2599999999</v>
+        <v>38176.699999999997</v>
       </c>
       <c r="E12" s="45">
         <v>9</v>
@@ -5124,10 +5124,10 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>20161.71</v>
+        <v>19174.3</v>
       </c>
       <c r="D13">
-        <v>43860.789999999899</v>
+        <v>40838.400000000001</v>
       </c>
       <c r="E13" s="45">
         <v>10</v>
@@ -5157,10 +5157,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>18851.23</v>
+        <v>14419.5</v>
       </c>
       <c r="D14">
-        <v>40958.769999999997</v>
+        <v>45043.199999999997</v>
       </c>
       <c r="E14" s="45">
         <v>11</v>
@@ -5190,10 +5190,10 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>15145.65</v>
+        <v>15409.9</v>
       </c>
       <c r="D15">
-        <v>35339.85</v>
+        <v>35308.400000000001</v>
       </c>
       <c r="E15" s="45">
         <v>12</v>

--- a/Two node models/in.xlsx
+++ b/Two node models/in.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Two node models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC29D8F3-A065-40AB-B77C-81CFBC5868AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677D732B-954E-443C-88E2-1E908BCB1FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
@@ -117,107 +117,107 @@
     <t>south</t>
   </si>
   <si>
+    <t>in %</t>
+  </si>
+  <si>
+    <t>Cost of transmission extension</t>
+  </si>
+  <si>
+    <t>Cost for Südlink (€)</t>
+  </si>
+  <si>
+    <t>Length of Südlink (km)</t>
+  </si>
+  <si>
+    <t>Capacity of Südlink (MW)</t>
+  </si>
+  <si>
+    <t>Cost (€/MW)</t>
+  </si>
+  <si>
+    <t>Lifetime (y)</t>
+  </si>
+  <si>
+    <t>Annulized costs</t>
+  </si>
+  <si>
+    <t>Additional costs in southern region</t>
+  </si>
+  <si>
+    <t>cost_add_var_s</t>
+  </si>
+  <si>
+    <t>cost_add_fix_s</t>
+  </si>
+  <si>
+    <t>CPF</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>200€ per km per year</t>
+  </si>
+  <si>
+    <t>in MW</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>0:00-1:30</t>
+  </si>
+  <si>
+    <t>1:30-3:00</t>
+  </si>
+  <si>
+    <t>3:00-4:30</t>
+  </si>
+  <si>
+    <t>4:30-6:00</t>
+  </si>
+  <si>
+    <t>6:00-7:30</t>
+  </si>
+  <si>
+    <t>7:30-9:00</t>
+  </si>
+  <si>
+    <t>9:00-10:30</t>
+  </si>
+  <si>
+    <t>10:30-12:00</t>
+  </si>
+  <si>
+    <t>12:00-13:30</t>
+  </si>
+  <si>
+    <t>13:30-15:00</t>
+  </si>
+  <si>
+    <t>15:00-16:30</t>
+  </si>
+  <si>
+    <t>16:30-18:00</t>
+  </si>
+  <si>
+    <t>Soll</t>
+  </si>
+  <si>
     <t>AFC
-(€/kW)</t>
-  </si>
-  <si>
-    <t>in %</t>
-  </si>
-  <si>
-    <t>Cost of transmission extension</t>
-  </si>
-  <si>
-    <t>Cost for Südlink (€)</t>
-  </si>
-  <si>
-    <t>Length of Südlink (km)</t>
-  </si>
-  <si>
-    <t>Capacity of Südlink (MW)</t>
-  </si>
-  <si>
-    <t>Cost (€/MW)</t>
-  </si>
-  <si>
-    <t>Lifetime (y)</t>
-  </si>
-  <si>
-    <t>Annulized costs</t>
-  </si>
-  <si>
-    <t>Additional costs in southern region</t>
-  </si>
-  <si>
-    <t>cost_add_var_s</t>
-  </si>
-  <si>
-    <t>cost_add_fix_s</t>
-  </si>
-  <si>
-    <t>CPF</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>peak</t>
-  </si>
-  <si>
-    <t>200€ per km per year</t>
-  </si>
-  <si>
-    <t>in MW</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>Solar</t>
-  </si>
-  <si>
-    <t>North</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>0:00-1:30</t>
-  </si>
-  <si>
-    <t>1:30-3:00</t>
-  </si>
-  <si>
-    <t>3:00-4:30</t>
-  </si>
-  <si>
-    <t>4:30-6:00</t>
-  </si>
-  <si>
-    <t>6:00-7:30</t>
-  </si>
-  <si>
-    <t>7:30-9:00</t>
-  </si>
-  <si>
-    <t>9:00-10:30</t>
-  </si>
-  <si>
-    <t>10:30-12:00</t>
-  </si>
-  <si>
-    <t>12:00-13:30</t>
-  </si>
-  <si>
-    <t>13:30-15:00</t>
-  </si>
-  <si>
-    <t>15:00-16:30</t>
-  </si>
-  <si>
-    <t>16:30-18:00</t>
-  </si>
-  <si>
-    <t>Soll</t>
+(€/kW p.a.)</t>
   </si>
 </sst>
 </file>
@@ -815,7 +815,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -964,10 +964,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>603.07999999999993</c:v>
+                  <c:v>630.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1027,10 +1027,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>679.48</c:v>
+                  <c:v>679.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,7 +1096,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589632111"/>
@@ -1156,7 +1156,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589627951"/>
@@ -1197,7 +1197,7 @@
       <a:pPr>
         <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1249,7 +1249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1646,7 +1646,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509294543"/>
@@ -1705,7 +1705,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509296207"/>
@@ -1747,7 +1747,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1777,7 +1777,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1828,7 +1828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2135,7 +2135,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509307439"/>
@@ -2194,7 +2194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509309103"/>
@@ -2236,7 +2236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2266,7 +2266,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4368,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4431,14 +4431,14 @@
         <v>11</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="H3" s="39" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -4463,10 +4463,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -4482,7 +4482,7 @@
     </row>
     <row r="5" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="7">
         <v>2000</v>
@@ -4497,26 +4497,26 @@
         <v>0.32</v>
       </c>
       <c r="G5" s="42">
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="H5" s="40">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N5" s="28" t="s">
         <v>13</v>
       </c>
       <c r="O5" s="12">
         <f>G5</f>
-        <v>95</v>
+        <v>280</v>
       </c>
       <c r="P5" s="13">
         <f t="shared" ref="P5" si="0">G5+H5*$P$4/1000</f>
-        <v>603.07999999999993</v>
+        <v>630.4</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7">
         <v>1700</v>
@@ -4531,21 +4531,21 @@
         <v>0.27</v>
       </c>
       <c r="G6" s="42">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="H6" s="40">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>14</v>
       </c>
       <c r="O6" s="14">
         <f>G6</f>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="P6" s="15">
         <f>G6+H6*$P$4/1000</f>
-        <v>679.48</v>
+        <v>679.4</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4565,7 +4565,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="42">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H7" s="40">
         <f>E7/D7+F7/D7*$C$33</f>
@@ -4591,7 +4591,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="42">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H8" s="40">
         <v>0</v>
@@ -4667,12 +4667,12 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="11">
         <f>10000000000</f>
@@ -4681,7 +4681,7 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="11">
         <v>700</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="11">
         <v>4000</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C41" s="44">
         <f>C37/C39</f>
@@ -4713,7 +4713,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="11">
         <v>40</v>
@@ -4724,7 +4724,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="11">
         <f>C41*$C$30*(1+$C$30)^C42/((1+$C$30)^C42-1)</f>
@@ -4739,7 +4739,7 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C47" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4757,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4770,12 +4770,12 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="C1" s="66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D1" s="66"/>
       <c r="E1" s="46"/>
       <c r="F1" s="66" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G1" s="66"/>
       <c r="H1" s="66"/>
@@ -4825,7 +4825,7 @@
     </row>
     <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="45">
         <v>1</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="5" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="45">
         <v>2</v>
@@ -4887,7 +4887,7 @@
     </row>
     <row r="6" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="45">
         <v>3</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="7" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="45">
         <v>4</v>
@@ -4953,7 +4953,7 @@
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="45">
         <v>5</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="9" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="45">
         <v>6</v>
@@ -5019,7 +5019,7 @@
     </row>
     <row r="10" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="45">
         <v>7</v>
@@ -5052,7 +5052,7 @@
     </row>
     <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="45">
         <v>8</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="45">
         <v>9</v>
@@ -5118,7 +5118,7 @@
     </row>
     <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="45">
         <v>10</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="14" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="45">
         <v>11</v>
@@ -5184,7 +5184,7 @@
     </row>
     <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="45">
         <v>12</v>
@@ -5341,17 +5341,17 @@
       <c r="C34" s="47"/>
       <c r="D34" s="47"/>
       <c r="M34" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="N34" s="45" t="s">
         <v>46</v>
-      </c>
-      <c r="N34" s="45" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C35" s="47"/>
       <c r="D35" s="47"/>
       <c r="L35" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M35" s="47">
         <f>N43</f>
@@ -5366,7 +5366,7 @@
       <c r="C36" s="47"/>
       <c r="D36" s="47"/>
       <c r="L36" s="45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M36" s="47">
         <f>O43</f>
@@ -5452,7 +5452,7 @@
       <c r="C44" s="47"/>
       <c r="D44" s="47"/>
       <c r="L44" s="46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N44" s="52">
         <f>AVERAGE(F4:F26)</f>
@@ -5475,7 +5475,7 @@
       <c r="C45" s="47"/>
       <c r="D45" s="47"/>
       <c r="L45" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N45" s="45">
         <v>21</v>

--- a/Two node models/in.xlsx
+++ b/Two node models/in.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Two node models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677D732B-954E-443C-88E2-1E908BCB1FEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB95963A-744E-4A52-9A7A-649443035150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
@@ -815,7 +815,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1096,7 +1096,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589632111"/>
@@ -1156,7 +1156,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589627951"/>
@@ -1197,7 +1197,7 @@
       <a:pPr>
         <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1249,7 +1249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1305,40 +1305,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.43333333333333302</c:v>
+                  <c:v>0.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.245</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19500000000000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.125</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.105</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.16999999999999901</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.23499999999999999</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28499999999999998</c:v>
+                  <c:v>0.28999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.17499999999999999</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1389,10 +1389,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19500000000000001</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.35499999999999998</c:v>
+                  <c:v>0.36</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.18</c:v>
@@ -1404,16 +1404,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4999999999999999E-2</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.315</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.105</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1467,16 +1467,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.30666666666666598</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16499999999999901</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14499999999999999</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.13</c:v>
@@ -1485,19 +1485,19 @@
                   <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.4999999999999895E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.245</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20499999999999999</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.13</c:v>
@@ -1551,13 +1551,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.4999999999999895E-2</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30499999999999999</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.5000000000000001E-2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1569,13 +1569,13 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.29499999999999998</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.44500000000000001</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.26500000000000001</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1646,7 +1646,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509294543"/>
@@ -1705,7 +1705,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509296207"/>
@@ -1747,7 +1747,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1777,7 +1777,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1828,7 +1828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1915,40 +1915,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>12728.1</c:v>
+                  <c:v>11170</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14509.7</c:v>
+                  <c:v>10250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15966.6</c:v>
+                  <c:v>11510</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22739.5</c:v>
+                  <c:v>20510</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19954.2</c:v>
+                  <c:v>18900</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21614.9</c:v>
+                  <c:v>24760</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18904.599999999999</c:v>
+                  <c:v>23620</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15283.9</c:v>
+                  <c:v>14310</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24613.9</c:v>
+                  <c:v>21830</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19174.3</c:v>
+                  <c:v>16610</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14419.5</c:v>
+                  <c:v>10930</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15409.9</c:v>
+                  <c:v>12880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2037,40 +2037,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>31989.3</c:v>
+                  <c:v>33270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41208.1</c:v>
+                  <c:v>34890</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46824</c:v>
+                  <c:v>40580</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37273.199999999997</c:v>
+                  <c:v>38830</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39508.5</c:v>
+                  <c:v>43640</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29103.4</c:v>
+                  <c:v>38280</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>25812.799999999999</c:v>
+                  <c:v>37030</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40433.800000000003</c:v>
+                  <c:v>45070</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38176.699999999997</c:v>
+                  <c:v>39040</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40838.400000000001</c:v>
+                  <c:v>41440</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45043.199999999997</c:v>
+                  <c:v>41330</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35308.400000000001</c:v>
+                  <c:v>34750</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,7 +2135,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509307439"/>
@@ -2194,7 +2194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509309103"/>
@@ -2236,7 +2236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2266,7 +2266,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4368,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4757,8 +4757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I15"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4831,22 +4831,22 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>12728.1</v>
+        <v>11170</v>
       </c>
       <c r="D4">
-        <v>31989.3</v>
+        <v>33270</v>
       </c>
       <c r="E4" s="45">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.43333333333333302</v>
+        <v>0.43</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.30666666666666598</v>
+        <v>0.31</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -4860,25 +4860,25 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>14509.7</v>
+        <v>10250</v>
       </c>
       <c r="D5">
-        <v>41208.1</v>
+        <v>34890</v>
       </c>
       <c r="E5" s="45">
         <v>2</v>
       </c>
       <c r="F5">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="G5">
-        <v>0.19500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H5">
-        <v>0.16499999999999901</v>
+        <v>0.16</v>
       </c>
       <c r="I5">
-        <v>8.4999999999999895E-2</v>
+        <v>0.08</v>
       </c>
       <c r="V5" s="56"/>
       <c r="W5" s="57"/>
@@ -4893,25 +4893,25 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>15966.6</v>
+        <v>11510</v>
       </c>
       <c r="D6">
-        <v>46824</v>
+        <v>40580</v>
       </c>
       <c r="E6" s="45">
         <v>3</v>
       </c>
       <c r="F6">
-        <v>0.19500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="G6">
-        <v>0.35499999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="H6">
         <v>0.1</v>
       </c>
       <c r="I6">
-        <v>0.30499999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="V6" s="59"/>
       <c r="W6" s="60"/>
@@ -4926,25 +4926,25 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>22739.5</v>
+        <v>20510</v>
       </c>
       <c r="D7">
-        <v>37273.199999999997</v>
+        <v>38830</v>
       </c>
       <c r="E7" s="45">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>0.20499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="G7">
         <v>0.18</v>
       </c>
       <c r="H7">
-        <v>0.14499999999999999</v>
+        <v>0.15</v>
       </c>
       <c r="I7">
-        <v>9.5000000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="V7" s="59"/>
       <c r="W7" s="60"/>
@@ -4959,16 +4959,16 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>19954.2</v>
+        <v>18900</v>
       </c>
       <c r="D8">
-        <v>39508.5</v>
+        <v>43640</v>
       </c>
       <c r="E8" s="45">
         <v>5</v>
       </c>
       <c r="F8">
-        <v>0.125</v>
+        <v>0.12</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4992,10 +4992,10 @@
         <v>6</v>
       </c>
       <c r="C9">
-        <v>21614.9</v>
+        <v>24760</v>
       </c>
       <c r="D9">
-        <v>29103.4</v>
+        <v>38280</v>
       </c>
       <c r="E9" s="45">
         <v>6</v>
@@ -5025,22 +5025,22 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>18904.599999999999</v>
+        <v>23620</v>
       </c>
       <c r="D10">
-        <v>25812.799999999999</v>
+        <v>37030</v>
       </c>
       <c r="E10" s="45">
         <v>7</v>
       </c>
       <c r="F10">
-        <v>0.105</v>
+        <v>0.11</v>
       </c>
       <c r="G10">
-        <v>1.4999999999999999E-2</v>
+        <v>0.02</v>
       </c>
       <c r="H10">
-        <v>8.4999999999999895E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I10">
         <v>0.02</v>
@@ -5058,16 +5058,16 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>15283.9</v>
+        <v>14310</v>
       </c>
       <c r="D11">
-        <v>40433.800000000003</v>
+        <v>45070</v>
       </c>
       <c r="E11" s="45">
         <v>8</v>
       </c>
       <c r="F11">
-        <v>0.16999999999999901</v>
+        <v>0.17</v>
       </c>
       <c r="G11">
         <v>0.19</v>
@@ -5076,7 +5076,7 @@
         <v>0.16</v>
       </c>
       <c r="I11">
-        <v>0.29499999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="V11" s="59"/>
       <c r="W11" s="60"/>
@@ -5091,25 +5091,25 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>24613.9</v>
+        <v>21830</v>
       </c>
       <c r="D12">
-        <v>38176.699999999997</v>
+        <v>39040</v>
       </c>
       <c r="E12" s="45">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>0.23499999999999999</v>
+        <v>0.24</v>
       </c>
       <c r="G12">
-        <v>0.315</v>
+        <v>0.32</v>
       </c>
       <c r="H12">
-        <v>0.245</v>
+        <v>0.24</v>
       </c>
       <c r="I12">
-        <v>0.44500000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="V12" s="59"/>
       <c r="W12" s="60"/>
@@ -5124,25 +5124,25 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>19174.3</v>
+        <v>16610</v>
       </c>
       <c r="D13">
-        <v>40838.400000000001</v>
+        <v>41440</v>
       </c>
       <c r="E13" s="45">
         <v>10</v>
       </c>
       <c r="F13">
-        <v>0.28499999999999998</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G13">
-        <v>0.105</v>
+        <v>0.11</v>
       </c>
       <c r="H13">
         <v>0.32</v>
       </c>
       <c r="I13">
-        <v>0.26500000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="V13" s="59"/>
       <c r="W13" s="60"/>
@@ -5157,10 +5157,10 @@
         <v>11</v>
       </c>
       <c r="C14">
-        <v>14419.5</v>
+        <v>10930</v>
       </c>
       <c r="D14">
-        <v>45043.199999999997</v>
+        <v>41330</v>
       </c>
       <c r="E14" s="45">
         <v>11</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.20499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -5190,16 +5190,16 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>15409.9</v>
+        <v>12880</v>
       </c>
       <c r="D15">
-        <v>35308.400000000001</v>
+        <v>34750</v>
       </c>
       <c r="E15" s="45">
         <v>12</v>
       </c>
       <c r="F15">
-        <v>0.17499999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -5264,18 +5264,36 @@
     <row r="21" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="47"/>
       <c r="D21" s="47"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
       <c r="V21" s="59"/>
       <c r="W21" s="60"/>
       <c r="X21" s="61"/>
       <c r="Y21" s="60"/>
     </row>
     <row r="22" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
       <c r="V22" s="59"/>
       <c r="W22" s="60"/>
       <c r="X22" s="61"/>
       <c r="Y22" s="60"/>
     </row>
     <row r="23" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
       <c r="V23" s="59"/>
       <c r="W23" s="60"/>
       <c r="X23" s="61"/>
@@ -5284,18 +5302,36 @@
     <row r="24" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
       <c r="V24" s="59"/>
       <c r="W24" s="60"/>
       <c r="X24" s="61"/>
       <c r="Y24" s="60"/>
     </row>
     <row r="25" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
       <c r="V25" s="59"/>
       <c r="W25" s="60"/>
       <c r="X25" s="61"/>
       <c r="Y25" s="60"/>
     </row>
     <row r="26" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
       <c r="V26" s="59"/>
       <c r="W26" s="60"/>
       <c r="X26" s="61"/>
@@ -5304,6 +5340,12 @@
     <row r="27" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C27" s="47"/>
       <c r="D27" s="47"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
       <c r="V27" s="59"/>
       <c r="W27" s="60"/>
       <c r="X27" s="61"/>
@@ -5312,6 +5354,12 @@
     <row r="28" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
       <c r="V28" s="59"/>
       <c r="W28" s="60"/>
       <c r="X28" s="61"/>
@@ -5320,22 +5368,52 @@
     <row r="29" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C29" s="47"/>
       <c r="D29" s="47"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
     </row>
     <row r="30" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
     </row>
     <row r="31" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C31" s="47"/>
       <c r="D31" s="47"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
     </row>
     <row r="32" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C32" s="47"/>
       <c r="D32" s="47"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C33" s="47"/>
       <c r="D33" s="47"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C34" s="47"/>
@@ -5355,11 +5433,11 @@
       </c>
       <c r="M35" s="47">
         <f>N43</f>
-        <v>1790.9333333333325</v>
+        <v>1795.8000000000004</v>
       </c>
       <c r="N35" s="47">
         <f>P43</f>
-        <v>1512.3166666666655</v>
+        <v>1503.8</v>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.35">
@@ -5370,11 +5448,11 @@
       </c>
       <c r="M36" s="47">
         <f>O43</f>
-        <v>989.15</v>
+        <v>1007.4000000000001</v>
       </c>
       <c r="N36" s="47">
         <f>Q43</f>
-        <v>1102.3</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.35">
@@ -5433,19 +5511,19 @@
       </c>
       <c r="N43" s="51">
         <f>(8760*N44)</f>
-        <v>1790.9333333333325</v>
+        <v>1795.8000000000004</v>
       </c>
       <c r="O43" s="51">
         <f t="shared" ref="O43:Q43" si="0">(8760*O44)</f>
-        <v>989.15</v>
+        <v>1007.4000000000001</v>
       </c>
       <c r="P43" s="51">
         <f t="shared" si="0"/>
-        <v>1512.3166666666655</v>
+        <v>1503.8</v>
       </c>
       <c r="Q43" s="51">
         <f t="shared" si="0"/>
-        <v>1102.3</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.35">
@@ -5456,19 +5534,19 @@
       </c>
       <c r="N44" s="52">
         <f>AVERAGE(F4:F26)</f>
-        <v>0.20444444444444435</v>
+        <v>0.20500000000000004</v>
       </c>
       <c r="O44" s="52">
         <f>AVERAGE(G4:G26)</f>
-        <v>0.11291666666666667</v>
+        <v>0.115</v>
       </c>
       <c r="P44" s="52">
         <f>AVERAGE(H4:H26)</f>
-        <v>0.17263888888888876</v>
+        <v>0.17166666666666666</v>
       </c>
       <c r="Q44" s="52">
         <f>AVERAGE(I4:I26)</f>
-        <v>0.12583333333333332</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="45" spans="3:17" x14ac:dyDescent="0.35">

--- a/Two node models/in.xlsx
+++ b/Two node models/in.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Locational-investment-signals\Two node models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.eicke\Documents\Locational-investment-signals\Two node models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB95963A-744E-4A52-9A7A-649443035150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26928683-E6EA-4692-A305-0BC4194B11F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
@@ -815,7 +815,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -964,10 +964,10 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>280</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>630.4</c:v>
+                  <c:v>650.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,7 +1030,7 @@
                   <c:v>110</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>679.4</c:v>
+                  <c:v>723.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,7 +1096,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589632111"/>
@@ -1156,7 +1156,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="589627951"/>
@@ -1197,7 +1197,7 @@
       <a:pPr>
         <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1249,7 +1249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1646,7 +1646,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509294543"/>
@@ -1705,7 +1705,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509296207"/>
@@ -1747,7 +1747,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1777,7 +1777,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1828,7 +1828,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2135,7 +2135,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509307439"/>
@@ -2194,7 +2194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-DE"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="509309103"/>
@@ -2236,7 +2236,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-DE"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2266,7 +2266,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-DE"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4368,8 +4368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4497,7 +4497,7 @@
         <v>0.32</v>
       </c>
       <c r="G5" s="42">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="H5" s="40">
         <v>40</v>
@@ -4507,11 +4507,11 @@
       </c>
       <c r="O5" s="12">
         <f>G5</f>
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="P5" s="13">
         <f t="shared" ref="P5" si="0">G5+H5*$P$4/1000</f>
-        <v>630.4</v>
+        <v>650.4</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4534,7 +4534,7 @@
         <v>110</v>
       </c>
       <c r="H6" s="40">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N6" s="28" t="s">
         <v>14</v>
@@ -4545,7 +4545,7 @@
       </c>
       <c r="P6" s="15">
         <f>G6+H6*$P$4/1000</f>
-        <v>679.4</v>
+        <v>723.2</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -4591,7 +4591,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="42">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H8" s="40">
         <v>0</v>
@@ -4748,7 +4748,7 @@
     <mergeCell ref="O3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4757,7 +4757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BF2839-4BDE-4B18-A7A4-A5F1FDEE19B7}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="E21" sqref="E21:K34"/>
     </sheetView>
   </sheetViews>
